--- a/New-Implementation/Data/simple-data.xlsx
+++ b/New-Implementation/Data/simple-data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\Projects\UOttawa-Dynamic-Knapsack-Problem-Python\New-Implementation\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E879CB3-0BCE-4F00-AAC3-EB76D656ECB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BA79BB4-18CC-4F32-B19C-EB94957ED472}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7140" yWindow="2205" windowWidth="20595" windowHeight="13500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Indices Data" sheetId="1" r:id="rId1"/>
@@ -771,7 +771,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
@@ -1945,8 +1945,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:AMJ222"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2052,7 +2052,7 @@
         <v>9</v>
       </c>
       <c r="G3" s="19">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="H3" s="16">
         <v>1</v>
@@ -2070,7 +2070,7 @@
         <v>9</v>
       </c>
       <c r="M3" s="21">
-        <v>9</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -2089,7 +2089,7 @@
         <v>9</v>
       </c>
       <c r="G4" s="19">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="H4" s="16">
         <v>1</v>
@@ -2107,7 +2107,7 @@
         <v>9</v>
       </c>
       <c r="M4" s="21">
-        <v>9</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -2126,7 +2126,7 @@
         <v>9</v>
       </c>
       <c r="G5" s="19">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="H5" s="16">
         <v>1</v>
@@ -2144,7 +2144,7 @@
         <v>9</v>
       </c>
       <c r="M5" s="21">
-        <v>9</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -2163,7 +2163,7 @@
         <v>9</v>
       </c>
       <c r="G6" s="19">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="H6" s="16">
         <v>1</v>
@@ -2181,7 +2181,7 @@
         <v>9</v>
       </c>
       <c r="M6" s="21">
-        <v>9</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -2200,7 +2200,7 @@
         <v>9</v>
       </c>
       <c r="G7" s="19">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="H7" s="16">
         <v>1</v>
@@ -2218,7 +2218,7 @@
         <v>9</v>
       </c>
       <c r="M7" s="21">
-        <v>9</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
@@ -2237,7 +2237,7 @@
         <v>9</v>
       </c>
       <c r="G8" s="19">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="H8" s="16">
         <v>1</v>
@@ -2255,7 +2255,7 @@
         <v>9</v>
       </c>
       <c r="M8" s="21">
-        <v>9</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
@@ -2274,7 +2274,7 @@
         <v>9</v>
       </c>
       <c r="G9" s="19">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="H9" s="16">
         <v>1</v>
@@ -2292,7 +2292,7 @@
         <v>9</v>
       </c>
       <c r="M9" s="21">
-        <v>9</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
@@ -2319,7 +2319,7 @@
         <v>9</v>
       </c>
       <c r="M10" s="21">
-        <v>9</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -2346,7 +2346,7 @@
         <v>9</v>
       </c>
       <c r="M11" s="21">
-        <v>9</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
@@ -2373,7 +2373,7 @@
         <v>9</v>
       </c>
       <c r="M12" s="21">
-        <v>9</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
@@ -2400,7 +2400,7 @@
         <v>9</v>
       </c>
       <c r="M13" s="21">
-        <v>9</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
@@ -2427,7 +2427,7 @@
         <v>9</v>
       </c>
       <c r="M14" s="21">
-        <v>9</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
@@ -2454,7 +2454,7 @@
         <v>9</v>
       </c>
       <c r="M15" s="21">
-        <v>9</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
@@ -2481,7 +2481,7 @@
         <v>9</v>
       </c>
       <c r="M16" s="21">
-        <v>9</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
@@ -2508,7 +2508,7 @@
         <v>9</v>
       </c>
       <c r="M17" s="21">
-        <v>9</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
@@ -2535,7 +2535,7 @@
         <v>9</v>
       </c>
       <c r="M18" s="21">
-        <v>9</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
@@ -2562,7 +2562,7 @@
         <v>9</v>
       </c>
       <c r="M19" s="21">
-        <v>9</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
@@ -2589,7 +2589,7 @@
         <v>9</v>
       </c>
       <c r="M20" s="21">
-        <v>9</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
@@ -2616,7 +2616,7 @@
         <v>9</v>
       </c>
       <c r="M21" s="21">
-        <v>9</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
@@ -2643,7 +2643,7 @@
         <v>9</v>
       </c>
       <c r="M22" s="21">
-        <v>9</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
@@ -2668,7 +2668,7 @@
         <v>9</v>
       </c>
       <c r="M23" s="21">
-        <v>9</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
@@ -2693,7 +2693,7 @@
         <v>9</v>
       </c>
       <c r="M24" s="21">
-        <v>9</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
@@ -2713,7 +2713,7 @@
         <v>9</v>
       </c>
       <c r="M25" s="21">
-        <v>9</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
@@ -2733,7 +2733,7 @@
         <v>9</v>
       </c>
       <c r="M26" s="21">
-        <v>9</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
@@ -2753,7 +2753,7 @@
         <v>9</v>
       </c>
       <c r="M27" s="21">
-        <v>9</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
@@ -2773,7 +2773,7 @@
         <v>9</v>
       </c>
       <c r="M28" s="21">
-        <v>9</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
@@ -2793,7 +2793,7 @@
         <v>9</v>
       </c>
       <c r="M29" s="21">
-        <v>9</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
@@ -2813,7 +2813,7 @@
         <v>9</v>
       </c>
       <c r="M30" s="21">
-        <v>9</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
@@ -2833,7 +2833,7 @@
         <v>9</v>
       </c>
       <c r="M31" s="21">
-        <v>9</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
@@ -2853,7 +2853,7 @@
         <v>9</v>
       </c>
       <c r="M32" s="21">
-        <v>9</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="33" spans="8:13" x14ac:dyDescent="0.25">
@@ -2873,7 +2873,7 @@
         <v>9</v>
       </c>
       <c r="M33" s="21">
-        <v>9</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="34" spans="8:13" x14ac:dyDescent="0.25">
@@ -2893,7 +2893,7 @@
         <v>9</v>
       </c>
       <c r="M34" s="21">
-        <v>9</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="35" spans="8:13" x14ac:dyDescent="0.25">
@@ -2913,7 +2913,7 @@
         <v>9</v>
       </c>
       <c r="M35" s="21">
-        <v>9</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="36" spans="8:13" x14ac:dyDescent="0.25">
@@ -2933,7 +2933,7 @@
         <v>9</v>
       </c>
       <c r="M36" s="21">
-        <v>9</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="37" spans="8:13" x14ac:dyDescent="0.25">
@@ -2953,7 +2953,7 @@
         <v>9</v>
       </c>
       <c r="M37" s="21">
-        <v>9</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="38" spans="8:13" x14ac:dyDescent="0.25">
@@ -2973,7 +2973,7 @@
         <v>9</v>
       </c>
       <c r="M38" s="21">
-        <v>9</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="39" spans="8:13" x14ac:dyDescent="0.25">
@@ -2993,7 +2993,7 @@
         <v>9</v>
       </c>
       <c r="M39" s="21">
-        <v>9</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="40" spans="8:13" x14ac:dyDescent="0.25">
@@ -3013,7 +3013,7 @@
         <v>9</v>
       </c>
       <c r="M40" s="21">
-        <v>9</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="41" spans="8:13" x14ac:dyDescent="0.25">
@@ -3033,7 +3033,7 @@
         <v>9</v>
       </c>
       <c r="M41" s="21">
-        <v>9</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="42" spans="8:13" x14ac:dyDescent="0.25">
@@ -3053,7 +3053,7 @@
         <v>9</v>
       </c>
       <c r="M42" s="21">
-        <v>9</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="43" spans="8:13" x14ac:dyDescent="0.25">
@@ -3073,7 +3073,7 @@
         <v>9</v>
       </c>
       <c r="M43" s="21">
-        <v>9</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="44" spans="8:13" x14ac:dyDescent="0.25">
@@ -3093,7 +3093,7 @@
         <v>9</v>
       </c>
       <c r="M44" s="21">
-        <v>9</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="45" spans="8:13" x14ac:dyDescent="0.25">

--- a/New-Implementation/Data/simple-data.xlsx
+++ b/New-Implementation/Data/simple-data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\Projects\UOttawa-Dynamic-Knapsack-Problem-Python\New-Implementation\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BA79BB4-18CC-4F32-B19C-EB94957ED472}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35FEB9F6-D93C-4145-B9E2-7F9B8D860ED0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="2310" windowWidth="29040" windowHeight="15840" tabRatio="500" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Indices Data" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1264" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1276" uniqueCount="44">
   <si>
     <t>Time Horizon (t)</t>
   </si>
@@ -173,6 +173,9 @@
   </si>
   <si>
     <t>CPU 1</t>
+  </si>
+  <si>
+    <t>C2</t>
   </si>
 </sst>
 </file>
@@ -772,7 +775,7 @@
   <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -833,7 +836,9 @@
         <v>1</v>
       </c>
       <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
+      <c r="D3" s="2" t="s">
+        <v>43</v>
+      </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
     </row>
@@ -862,9 +867,7 @@
       <c r="F5" s="2"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <v>5</v>
-      </c>
+      <c r="A6" s="2"/>
       <c r="B6" s="2">
         <v>4</v>
       </c>
@@ -872,19 +875,13 @@
       <c r="F6" s="2"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2">
-        <v>5</v>
-      </c>
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
       <c r="F7" s="2"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
-      <c r="B8" s="2">
-        <v>6</v>
-      </c>
+      <c r="B8" s="2"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
@@ -965,7 +962,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1033,7 +1030,7 @@
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1073,10 +1070,18 @@
       <c r="I2" s="7"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="7"/>
+      <c r="A3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="7">
+        <v>4</v>
+      </c>
       <c r="I3" s="7"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -1188,7 +1193,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
@@ -1225,13 +1230,22 @@
         <v>8</v>
       </c>
       <c r="D2">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
+      <c r="A3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="6"/>
@@ -1284,7 +1298,7 @@
   <dimension ref="A1:H75"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1331,7 +1345,7 @@
         <v>9</v>
       </c>
       <c r="B2" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>7</v>
@@ -1340,7 +1354,7 @@
         <v>9</v>
       </c>
       <c r="E2" s="10">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="F2" s="9" t="s">
         <v>8</v>
@@ -1355,9 +1369,15 @@
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="10"/>
+      <c r="C3" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="10">
+        <v>0.1</v>
+      </c>
       <c r="F3" s="9"/>
       <c r="G3" s="2"/>
       <c r="H3" s="10"/>
@@ -1925,10 +1945,10 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="E2">
         <v>0.99</v>
@@ -1946,7 +1966,7 @@
   <dimension ref="A1:AMJ222"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2052,7 +2072,7 @@
         <v>9</v>
       </c>
       <c r="G3" s="19">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="H3" s="16">
         <v>1</v>
@@ -2070,7 +2090,7 @@
         <v>9</v>
       </c>
       <c r="M3" s="21">
-        <v>4.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -2089,7 +2109,7 @@
         <v>9</v>
       </c>
       <c r="G4" s="19">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="H4" s="16">
         <v>1</v>
@@ -2107,7 +2127,7 @@
         <v>9</v>
       </c>
       <c r="M4" s="21">
-        <v>4.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -2126,7 +2146,7 @@
         <v>9</v>
       </c>
       <c r="G5" s="19">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="H5" s="16">
         <v>1</v>
@@ -2144,7 +2164,7 @@
         <v>9</v>
       </c>
       <c r="M5" s="21">
-        <v>4.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -2163,7 +2183,7 @@
         <v>9</v>
       </c>
       <c r="G6" s="19">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="H6" s="16">
         <v>1</v>
@@ -2181,7 +2201,7 @@
         <v>9</v>
       </c>
       <c r="M6" s="21">
-        <v>4.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -2200,7 +2220,7 @@
         <v>9</v>
       </c>
       <c r="G7" s="19">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="H7" s="16">
         <v>1</v>
@@ -2218,17 +2238,17 @@
         <v>9</v>
       </c>
       <c r="M7" s="21">
-        <v>4.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="22"/>
       <c r="B8" s="22"/>
       <c r="C8" s="18">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="E8" s="18" t="s">
         <v>8</v>
@@ -2237,13 +2257,13 @@
         <v>9</v>
       </c>
       <c r="G8" s="19">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="H8" s="16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I8" s="20">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J8" s="20" t="s">
         <v>7</v>
@@ -2255,17 +2275,17 @@
         <v>9</v>
       </c>
       <c r="M8" s="21">
-        <v>4.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="22"/>
       <c r="B9" s="22"/>
       <c r="C9" s="18">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="E9" s="18" t="s">
         <v>8</v>
@@ -2274,13 +2294,13 @@
         <v>9</v>
       </c>
       <c r="G9" s="19">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="H9" s="16">
+        <v>2</v>
+      </c>
+      <c r="I9" s="20">
         <v>1</v>
-      </c>
-      <c r="I9" s="20">
-        <v>6</v>
       </c>
       <c r="J9" s="20" t="s">
         <v>7</v>
@@ -2292,22 +2312,32 @@
         <v>9</v>
       </c>
       <c r="M9" s="21">
-        <v>4.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="22"/>
       <c r="B10" s="22"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="19"/>
+      <c r="C10" s="18">
+        <v>2</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="E10" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10" s="19">
+        <v>0</v>
+      </c>
       <c r="H10" s="16">
         <v>2</v>
       </c>
       <c r="I10" s="20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J10" s="20" t="s">
         <v>7</v>
@@ -2319,22 +2349,32 @@
         <v>9</v>
       </c>
       <c r="M10" s="21">
-        <v>4.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="22"/>
       <c r="B11" s="22"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="19"/>
+      <c r="C11" s="18">
+        <v>3</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11" s="19">
+        <v>0</v>
+      </c>
       <c r="H11" s="16">
         <v>2</v>
       </c>
       <c r="I11" s="20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J11" s="20" t="s">
         <v>7</v>
@@ -2346,22 +2386,32 @@
         <v>9</v>
       </c>
       <c r="M11" s="21">
-        <v>4.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="22"/>
       <c r="B12" s="22"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="19"/>
+      <c r="C12" s="18">
+        <v>4</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12" s="19">
+        <v>0</v>
+      </c>
       <c r="H12" s="16">
         <v>2</v>
       </c>
       <c r="I12" s="20">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J12" s="20" t="s">
         <v>7</v>
@@ -2373,7 +2423,7 @@
         <v>9</v>
       </c>
       <c r="M12" s="21">
-        <v>4.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
@@ -2385,10 +2435,10 @@
       <c r="F13" s="18"/>
       <c r="G13" s="19"/>
       <c r="H13" s="16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I13" s="20">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J13" s="20" t="s">
         <v>7</v>
@@ -2400,7 +2450,7 @@
         <v>9</v>
       </c>
       <c r="M13" s="21">
-        <v>4.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
@@ -2409,13 +2459,13 @@
       <c r="C14" s="18"/>
       <c r="D14" s="18"/>
       <c r="E14" s="18"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="19"/>
       <c r="H14" s="16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I14" s="20">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J14" s="20" t="s">
         <v>7</v>
@@ -2427,22 +2477,17 @@
         <v>9</v>
       </c>
       <c r="M14" s="21">
-        <v>4.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="22"/>
       <c r="B15" s="22"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="18"/>
       <c r="H15" s="16">
+        <v>3</v>
+      </c>
+      <c r="I15" s="20">
         <v>2</v>
-      </c>
-      <c r="I15" s="20">
-        <v>5</v>
       </c>
       <c r="J15" s="20" t="s">
         <v>7</v>
@@ -2454,22 +2499,17 @@
         <v>9</v>
       </c>
       <c r="M15" s="21">
-        <v>4.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="22"/>
       <c r="B16" s="22"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="18"/>
       <c r="H16" s="16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I16" s="20">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J16" s="20" t="s">
         <v>7</v>
@@ -2481,7 +2521,7 @@
         <v>9</v>
       </c>
       <c r="M16" s="21">
-        <v>4.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
@@ -2496,7 +2536,7 @@
         <v>3</v>
       </c>
       <c r="I17" s="20">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J17" s="20" t="s">
         <v>7</v>
@@ -2508,7 +2548,7 @@
         <v>9</v>
       </c>
       <c r="M17" s="21">
-        <v>4.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
@@ -2520,10 +2560,10 @@
       <c r="F18" s="23"/>
       <c r="G18" s="18"/>
       <c r="H18" s="16">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I18" s="20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18" s="20" t="s">
         <v>7</v>
@@ -2535,7 +2575,7 @@
         <v>9</v>
       </c>
       <c r="M18" s="21">
-        <v>4.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
@@ -2547,10 +2587,10 @@
       <c r="F19" s="23"/>
       <c r="G19" s="18"/>
       <c r="H19" s="16">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I19" s="20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J19" s="20" t="s">
         <v>7</v>
@@ -2562,7 +2602,7 @@
         <v>9</v>
       </c>
       <c r="M19" s="21">
-        <v>4.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
@@ -2574,10 +2614,10 @@
       <c r="F20" s="23"/>
       <c r="G20" s="18"/>
       <c r="H20" s="16">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I20" s="20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J20" s="20" t="s">
         <v>7</v>
@@ -2589,7 +2629,7 @@
         <v>9</v>
       </c>
       <c r="M20" s="21">
-        <v>4.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
@@ -2601,10 +2641,10 @@
       <c r="F21" s="23"/>
       <c r="G21" s="18"/>
       <c r="H21" s="16">
+        <v>4</v>
+      </c>
+      <c r="I21" s="20">
         <v>3</v>
-      </c>
-      <c r="I21" s="20">
-        <v>4</v>
       </c>
       <c r="J21" s="20" t="s">
         <v>7</v>
@@ -2616,7 +2656,7 @@
         <v>9</v>
       </c>
       <c r="M21" s="21">
-        <v>4.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
@@ -2628,10 +2668,10 @@
       <c r="F22" s="23"/>
       <c r="G22" s="18"/>
       <c r="H22" s="16">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I22" s="20">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J22" s="20" t="s">
         <v>7</v>
@@ -2643,7 +2683,7 @@
         <v>9</v>
       </c>
       <c r="M22" s="21">
-        <v>4.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
@@ -2653,13 +2693,13 @@
       <c r="F23" s="23"/>
       <c r="G23" s="18"/>
       <c r="H23" s="16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I23" s="20">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J23" s="20" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="K23" s="20" t="s">
         <v>8</v>
@@ -2668,7 +2708,7 @@
         <v>9</v>
       </c>
       <c r="M23" s="21">
-        <v>4.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
@@ -2678,33 +2718,33 @@
       <c r="F24" s="23"/>
       <c r="G24" s="18"/>
       <c r="H24" s="16">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I24" s="20">
+        <v>1</v>
+      </c>
+      <c r="J24" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="K24" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="L24" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="M24" s="21">
         <v>0</v>
-      </c>
-      <c r="J24" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="K24" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="L24" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="M24" s="21">
-        <v>4.5</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H25" s="16">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I25" s="20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J25" s="20" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="K25" s="20" t="s">
         <v>8</v>
@@ -2713,18 +2753,18 @@
         <v>9</v>
       </c>
       <c r="M25" s="21">
-        <v>4.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H26" s="16">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I26" s="20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J26" s="20" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="K26" s="20" t="s">
         <v>8</v>
@@ -2733,18 +2773,18 @@
         <v>9</v>
       </c>
       <c r="M26" s="21">
-        <v>4.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H27" s="16">
+        <v>1</v>
+      </c>
+      <c r="I27" s="20">
         <v>4</v>
       </c>
-      <c r="I27" s="20">
-        <v>3</v>
-      </c>
       <c r="J27" s="20" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="K27" s="20" t="s">
         <v>8</v>
@@ -2753,18 +2793,18 @@
         <v>9</v>
       </c>
       <c r="M27" s="21">
-        <v>4.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H28" s="16">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I28" s="20">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J28" s="20" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="K28" s="20" t="s">
         <v>8</v>
@@ -2773,18 +2813,18 @@
         <v>9</v>
       </c>
       <c r="M28" s="21">
-        <v>4.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H29" s="16">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I29" s="20">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J29" s="20" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="K29" s="20" t="s">
         <v>8</v>
@@ -2793,18 +2833,18 @@
         <v>9</v>
       </c>
       <c r="M29" s="21">
-        <v>4.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H30" s="16">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I30" s="20">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J30" s="20" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="K30" s="20" t="s">
         <v>8</v>
@@ -2813,38 +2853,38 @@
         <v>9</v>
       </c>
       <c r="M30" s="21">
-        <v>4.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H31" s="16">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I31" s="20">
+        <v>3</v>
+      </c>
+      <c r="J31" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="K31" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="L31" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="M31" s="21">
         <v>0</v>
-      </c>
-      <c r="J31" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="K31" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="L31" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="M31" s="21">
-        <v>4.5</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H32" s="16">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I32" s="20">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J32" s="20" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="K32" s="20" t="s">
         <v>8</v>
@@ -2853,18 +2893,18 @@
         <v>9</v>
       </c>
       <c r="M32" s="21">
-        <v>4.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H33" s="16">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I33" s="20">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J33" s="20" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="K33" s="20" t="s">
         <v>8</v>
@@ -2873,18 +2913,18 @@
         <v>9</v>
       </c>
       <c r="M33" s="21">
-        <v>4.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H34" s="16">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I34" s="20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J34" s="20" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="K34" s="20" t="s">
         <v>8</v>
@@ -2893,18 +2933,18 @@
         <v>9</v>
       </c>
       <c r="M34" s="21">
-        <v>4.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H35" s="16">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I35" s="20">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J35" s="20" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="K35" s="20" t="s">
         <v>8</v>
@@ -2913,18 +2953,18 @@
         <v>9</v>
       </c>
       <c r="M35" s="21">
-        <v>4.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H36" s="16">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I36" s="20">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J36" s="20" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="K36" s="20" t="s">
         <v>8</v>
@@ -2933,18 +2973,18 @@
         <v>9</v>
       </c>
       <c r="M36" s="21">
-        <v>4.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H37" s="16">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I37" s="20">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J37" s="20" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="K37" s="20" t="s">
         <v>8</v>
@@ -2953,18 +2993,18 @@
         <v>9</v>
       </c>
       <c r="M37" s="21">
-        <v>4.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H38" s="16">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I38" s="20">
         <v>0</v>
       </c>
       <c r="J38" s="20" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="K38" s="20" t="s">
         <v>8</v>
@@ -2973,18 +3013,18 @@
         <v>9</v>
       </c>
       <c r="M38" s="21">
-        <v>4.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H39" s="16">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I39" s="20">
         <v>1</v>
       </c>
       <c r="J39" s="20" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="K39" s="20" t="s">
         <v>8</v>
@@ -2993,18 +3033,18 @@
         <v>9</v>
       </c>
       <c r="M39" s="21">
-        <v>4.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H40" s="16">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I40" s="20">
         <v>2</v>
       </c>
       <c r="J40" s="20" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="K40" s="20" t="s">
         <v>8</v>
@@ -3013,18 +3053,18 @@
         <v>9</v>
       </c>
       <c r="M40" s="21">
-        <v>4.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H41" s="16">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I41" s="20">
         <v>3</v>
       </c>
       <c r="J41" s="20" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="K41" s="20" t="s">
         <v>8</v>
@@ -3033,18 +3073,18 @@
         <v>9</v>
       </c>
       <c r="M41" s="21">
-        <v>4.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H42" s="16">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I42" s="20">
         <v>4</v>
       </c>
       <c r="J42" s="20" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="K42" s="20" t="s">
         <v>8</v>
@@ -3053,48 +3093,24 @@
         <v>9</v>
       </c>
       <c r="M42" s="21">
-        <v>4.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="8:13" x14ac:dyDescent="0.25">
-      <c r="H43" s="16">
-        <v>6</v>
-      </c>
-      <c r="I43" s="20">
-        <v>5</v>
-      </c>
-      <c r="J43" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="K43" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="L43" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="M43" s="21">
-        <v>4.5</v>
-      </c>
+      <c r="H43" s="16"/>
+      <c r="I43" s="20"/>
+      <c r="J43" s="20"/>
+      <c r="K43" s="20"/>
+      <c r="L43" s="16"/>
+      <c r="M43" s="21"/>
     </row>
     <row r="44" spans="8:13" x14ac:dyDescent="0.25">
-      <c r="H44" s="16">
-        <v>6</v>
-      </c>
-      <c r="I44" s="20">
-        <v>6</v>
-      </c>
-      <c r="J44" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="K44" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="L44" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="M44" s="21">
-        <v>4.5</v>
-      </c>
+      <c r="H44" s="16"/>
+      <c r="I44" s="20"/>
+      <c r="J44" s="20"/>
+      <c r="K44" s="20"/>
+      <c r="L44" s="16"/>
+      <c r="M44" s="21"/>
     </row>
     <row r="45" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H45" s="25"/>

--- a/New-Implementation/Data/simple-data.xlsx
+++ b/New-Implementation/Data/simple-data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\Projects\UOttawa-Dynamic-Knapsack-Problem-Python\New-Implementation\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35FEB9F6-D93C-4145-B9E2-7F9B8D860ED0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E1748D8-4807-4788-AC54-D318181D676E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="2310" windowWidth="29040" windowHeight="15840" tabRatio="500" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Indices Data" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1276" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1277" uniqueCount="45">
   <si>
     <t>Time Horizon (t)</t>
   </si>
@@ -176,6 +176,9 @@
   </si>
   <si>
     <t>C2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -1297,8 +1300,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:H75"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1376,7 +1379,7 @@
         <v>9</v>
       </c>
       <c r="E3" s="10">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="F3" s="9"/>
       <c r="G3" s="2"/>
@@ -1965,8 +1968,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:AMJ222"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2072,7 +2075,7 @@
         <v>9</v>
       </c>
       <c r="G3" s="19">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="H3" s="16">
         <v>1</v>
@@ -2109,7 +2112,7 @@
         <v>9</v>
       </c>
       <c r="G4" s="19">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H4" s="16">
         <v>1</v>
@@ -2127,7 +2130,7 @@
         <v>9</v>
       </c>
       <c r="M4" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -2146,7 +2149,7 @@
         <v>9</v>
       </c>
       <c r="G5" s="19">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H5" s="16">
         <v>1</v>
@@ -2164,7 +2167,7 @@
         <v>9</v>
       </c>
       <c r="M5" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -2183,7 +2186,7 @@
         <v>9</v>
       </c>
       <c r="G6" s="19">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H6" s="16">
         <v>1</v>
@@ -2201,7 +2204,7 @@
         <v>9</v>
       </c>
       <c r="M6" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -2220,7 +2223,7 @@
         <v>9</v>
       </c>
       <c r="G7" s="19">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H7" s="16">
         <v>1</v>
@@ -2238,7 +2241,7 @@
         <v>9</v>
       </c>
       <c r="M7" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
@@ -2312,7 +2315,7 @@
         <v>9</v>
       </c>
       <c r="M9" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
@@ -2349,7 +2352,7 @@
         <v>9</v>
       </c>
       <c r="M10" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -2368,7 +2371,7 @@
         <v>9</v>
       </c>
       <c r="G11" s="19">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H11" s="16">
         <v>2</v>
@@ -2386,7 +2389,7 @@
         <v>9</v>
       </c>
       <c r="M11" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
@@ -2405,7 +2408,7 @@
         <v>9</v>
       </c>
       <c r="G12" s="19">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H12" s="16">
         <v>2</v>
@@ -2423,7 +2426,7 @@
         <v>9</v>
       </c>
       <c r="M12" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
@@ -2477,7 +2480,7 @@
         <v>9</v>
       </c>
       <c r="M14" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
@@ -2499,7 +2502,7 @@
         <v>9</v>
       </c>
       <c r="M15" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
@@ -2521,10 +2524,10 @@
         <v>9</v>
       </c>
       <c r="M16" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A17" s="22"/>
       <c r="B17" s="22"/>
       <c r="C17" s="18"/>
@@ -2548,10 +2551,10 @@
         <v>9</v>
       </c>
       <c r="M17" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A18" s="22"/>
       <c r="B18" s="22"/>
       <c r="C18" s="18"/>
@@ -2578,7 +2581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A19" s="22"/>
       <c r="B19" s="22"/>
       <c r="C19" s="18"/>
@@ -2602,10 +2605,10 @@
         <v>9</v>
       </c>
       <c r="M19" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A20" s="22"/>
       <c r="B20" s="22"/>
       <c r="C20" s="18"/>
@@ -2629,10 +2632,10 @@
         <v>9</v>
       </c>
       <c r="M20" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A21" s="22"/>
       <c r="B21" s="22"/>
       <c r="C21" s="18"/>
@@ -2656,10 +2659,10 @@
         <v>9</v>
       </c>
       <c r="M21" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A22" s="22"/>
       <c r="B22" s="22"/>
       <c r="C22" s="18"/>
@@ -2683,10 +2686,10 @@
         <v>9</v>
       </c>
       <c r="M22" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:29" x14ac:dyDescent="0.25">
       <c r="C23" s="18"/>
       <c r="D23" s="18"/>
       <c r="E23" s="18"/>
@@ -2710,8 +2713,11 @@
       <c r="M23" s="21">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="AC23" s="11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:29" x14ac:dyDescent="0.25">
       <c r="C24" s="18"/>
       <c r="D24" s="18"/>
       <c r="E24" s="18"/>
@@ -2736,7 +2742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:29" x14ac:dyDescent="0.25">
       <c r="H25" s="16">
         <v>1</v>
       </c>
@@ -2756,7 +2762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:29" x14ac:dyDescent="0.25">
       <c r="H26" s="16">
         <v>1</v>
       </c>
@@ -2776,7 +2782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:29" x14ac:dyDescent="0.25">
       <c r="H27" s="16">
         <v>1</v>
       </c>
@@ -2796,7 +2802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:29" x14ac:dyDescent="0.25">
       <c r="H28" s="16">
         <v>2</v>
       </c>
@@ -2816,7 +2822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:29" x14ac:dyDescent="0.25">
       <c r="H29" s="16">
         <v>2</v>
       </c>
@@ -2836,7 +2842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:29" x14ac:dyDescent="0.25">
       <c r="H30" s="16">
         <v>2</v>
       </c>
@@ -2856,7 +2862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:29" x14ac:dyDescent="0.25">
       <c r="H31" s="16">
         <v>2</v>
       </c>
@@ -2876,7 +2882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:29" x14ac:dyDescent="0.25">
       <c r="H32" s="16">
         <v>2</v>
       </c>
@@ -2933,7 +2939,7 @@
         <v>9</v>
       </c>
       <c r="M34" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="8:13" x14ac:dyDescent="0.25">
@@ -2953,7 +2959,7 @@
         <v>9</v>
       </c>
       <c r="M35" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="8:13" x14ac:dyDescent="0.25">
@@ -2973,7 +2979,7 @@
         <v>9</v>
       </c>
       <c r="M36" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="8:13" x14ac:dyDescent="0.25">
@@ -2993,7 +2999,7 @@
         <v>9</v>
       </c>
       <c r="M37" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="8:13" x14ac:dyDescent="0.25">
@@ -3033,7 +3039,7 @@
         <v>9</v>
       </c>
       <c r="M39" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="8:13" x14ac:dyDescent="0.25">
@@ -3053,7 +3059,7 @@
         <v>9</v>
       </c>
       <c r="M40" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="8:13" x14ac:dyDescent="0.25">
@@ -3073,7 +3079,7 @@
         <v>9</v>
       </c>
       <c r="M41" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="8:13" x14ac:dyDescent="0.25">
@@ -3093,7 +3099,7 @@
         <v>9</v>
       </c>
       <c r="M42" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="8:13" x14ac:dyDescent="0.25">

--- a/New-Implementation/Data/simple-data.xlsx
+++ b/New-Implementation/Data/simple-data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\Projects\UOttawa-Dynamic-Knapsack-Problem-Python\New-Implementation\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E1748D8-4807-4788-AC54-D318181D676E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D69A3D8-3314-41D3-B3AC-769CB45771D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5070" yWindow="5070" windowWidth="28800" windowHeight="15435" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Indices Data" sheetId="1" r:id="rId1"/>
@@ -120,9 +120,6 @@
     <t>Cost of Rescheduling Premium (cc)</t>
   </si>
   <si>
-    <t>M</t>
-  </si>
-  <si>
     <t>Gamma</t>
   </si>
   <si>
@@ -179,6 +176,9 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Cost of Violating resources (cv)</t>
   </si>
 </sst>
 </file>
@@ -777,8 +777,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -840,7 +840,7 @@
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
@@ -1077,7 +1077,7 @@
         <v>9</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>6</v>
@@ -1241,7 +1241,7 @@
         <v>9</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>8</v>
@@ -1300,7 +1300,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:H75"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
@@ -1373,7 +1373,7 @@
       <c r="A3" s="2"/>
       <c r="B3" s="9"/>
       <c r="C3" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>9</v>
@@ -1912,7 +1912,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1934,10 +1934,10 @@
         <v>24</v>
       </c>
       <c r="D1" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>25</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -1969,7 +1969,7 @@
   <dimension ref="A1:AMJ222"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1995,18 +1995,18 @@
   <sheetData>
     <row r="1" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B1" s="26"/>
       <c r="C1" s="27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D1" s="27"/>
       <c r="E1" s="27"/>
       <c r="F1" s="27"/>
       <c r="G1" s="27"/>
       <c r="H1" s="26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I1" s="26"/>
       <c r="J1" s="26"/>
@@ -2016,43 +2016,43 @@
     </row>
     <row r="2" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="C2" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="D2" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="E2" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="F2" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="G2" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="G2" s="15" t="s">
+      <c r="I2" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="H2" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="I2" s="12" t="s">
+      <c r="J2" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="J2" s="13" t="s">
+      <c r="K2" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="K2" s="13" t="s">
+      <c r="L2" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="L2" s="12" t="s">
-        <v>35</v>
-      </c>
       <c r="M2" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -2251,7 +2251,7 @@
         <v>0</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E8" s="18" t="s">
         <v>8</v>
@@ -2288,7 +2288,7 @@
         <v>1</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E9" s="18" t="s">
         <v>8</v>
@@ -2325,7 +2325,7 @@
         <v>2</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E10" s="18" t="s">
         <v>8</v>
@@ -2362,7 +2362,7 @@
         <v>3</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E11" s="18" t="s">
         <v>8</v>
@@ -2399,7 +2399,7 @@
         <v>4</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E12" s="18" t="s">
         <v>8</v>
@@ -2702,7 +2702,7 @@
         <v>0</v>
       </c>
       <c r="J23" s="20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K23" s="20" t="s">
         <v>8</v>
@@ -2714,7 +2714,7 @@
         <v>0</v>
       </c>
       <c r="AC23" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24" spans="1:29" x14ac:dyDescent="0.25">
@@ -2730,7 +2730,7 @@
         <v>1</v>
       </c>
       <c r="J24" s="20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K24" s="20" t="s">
         <v>8</v>
@@ -2750,7 +2750,7 @@
         <v>2</v>
       </c>
       <c r="J25" s="20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K25" s="20" t="s">
         <v>8</v>
@@ -2770,7 +2770,7 @@
         <v>3</v>
       </c>
       <c r="J26" s="20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K26" s="20" t="s">
         <v>8</v>
@@ -2790,7 +2790,7 @@
         <v>4</v>
       </c>
       <c r="J27" s="20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K27" s="20" t="s">
         <v>8</v>
@@ -2810,7 +2810,7 @@
         <v>0</v>
       </c>
       <c r="J28" s="20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K28" s="20" t="s">
         <v>8</v>
@@ -2830,7 +2830,7 @@
         <v>1</v>
       </c>
       <c r="J29" s="20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K29" s="20" t="s">
         <v>8</v>
@@ -2850,7 +2850,7 @@
         <v>2</v>
       </c>
       <c r="J30" s="20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K30" s="20" t="s">
         <v>8</v>
@@ -2870,7 +2870,7 @@
         <v>3</v>
       </c>
       <c r="J31" s="20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K31" s="20" t="s">
         <v>8</v>
@@ -2890,7 +2890,7 @@
         <v>4</v>
       </c>
       <c r="J32" s="20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K32" s="20" t="s">
         <v>8</v>
@@ -2910,7 +2910,7 @@
         <v>0</v>
       </c>
       <c r="J33" s="20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K33" s="20" t="s">
         <v>8</v>
@@ -2930,7 +2930,7 @@
         <v>1</v>
       </c>
       <c r="J34" s="20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K34" s="20" t="s">
         <v>8</v>
@@ -2950,7 +2950,7 @@
         <v>2</v>
       </c>
       <c r="J35" s="20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K35" s="20" t="s">
         <v>8</v>
@@ -2970,7 +2970,7 @@
         <v>3</v>
       </c>
       <c r="J36" s="20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K36" s="20" t="s">
         <v>8</v>
@@ -2990,7 +2990,7 @@
         <v>4</v>
       </c>
       <c r="J37" s="20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K37" s="20" t="s">
         <v>8</v>
@@ -3010,7 +3010,7 @@
         <v>0</v>
       </c>
       <c r="J38" s="20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K38" s="20" t="s">
         <v>8</v>
@@ -3030,7 +3030,7 @@
         <v>1</v>
       </c>
       <c r="J39" s="20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K39" s="20" t="s">
         <v>8</v>
@@ -3050,7 +3050,7 @@
         <v>2</v>
       </c>
       <c r="J40" s="20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K40" s="20" t="s">
         <v>8</v>
@@ -3070,7 +3070,7 @@
         <v>3</v>
       </c>
       <c r="J41" s="20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K41" s="20" t="s">
         <v>8</v>
@@ -3090,7 +3090,7 @@
         <v>4</v>
       </c>
       <c r="J42" s="20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K42" s="20" t="s">
         <v>8</v>
@@ -4558,7 +4558,7 @@
   <dimension ref="A1:R442"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4584,28 +4584,28 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="26" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B1" s="26"/>
       <c r="C1" s="26"/>
       <c r="D1" s="27" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E1" s="27"/>
       <c r="F1" s="27"/>
       <c r="G1" s="26" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H1" s="26"/>
       <c r="I1" s="26"/>
       <c r="J1" s="26" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K1" s="26"/>
       <c r="L1" s="26"/>
       <c r="M1" s="26"/>
       <c r="N1" s="27" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O1" s="27"/>
       <c r="P1" s="27"/>
@@ -4614,63 +4614,63 @@
     </row>
     <row r="2" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="C2" s="13" t="s">
+      <c r="D2" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="I2" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="J2" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="K2" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="L2" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="M2" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="F2" s="15" t="s">
+      <c r="N2" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="O2" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="P2" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q2" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="R2" s="13" t="s">
         <v>30</v>
-      </c>
-      <c r="H2" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="I2" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="J2" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="K2" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="L2" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="M2" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="N2" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="O2" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="P2" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q2" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="R2" s="13" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -4679,7 +4679,7 @@
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E3" s="24">
         <v>1</v>
@@ -4688,7 +4688,7 @@
         <v>45</v>
       </c>
       <c r="G3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H3" s="24">
         <v>1</v>
@@ -4700,10 +4700,10 @@
         <v>0</v>
       </c>
       <c r="K3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L3" s="24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M3">
         <v>15</v>
@@ -4715,10 +4715,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R3">
         <v>1.5</v>
@@ -4726,7 +4726,7 @@
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B4">
         <v>2</v>
@@ -4735,7 +4735,7 @@
         <v>30</v>
       </c>
       <c r="D4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E4" s="24">
         <v>2</v>
@@ -4744,7 +4744,7 @@
         <v>45</v>
       </c>
       <c r="G4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H4" s="24">
         <v>2</v>
@@ -4756,10 +4756,10 @@
         <v>1</v>
       </c>
       <c r="K4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L4" s="24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M4">
         <v>13.5</v>
@@ -4771,10 +4771,10 @@
         <v>1</v>
       </c>
       <c r="P4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R4">
         <v>1.35</v>
@@ -4782,7 +4782,7 @@
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B5">
         <v>3</v>
@@ -4791,7 +4791,7 @@
         <v>30</v>
       </c>
       <c r="D5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E5" s="24">
         <v>3</v>
@@ -4800,7 +4800,7 @@
         <v>45</v>
       </c>
       <c r="G5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H5" s="24">
         <v>3</v>
@@ -4812,10 +4812,10 @@
         <v>2</v>
       </c>
       <c r="K5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L5" s="24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M5">
         <v>12.15</v>
@@ -4827,10 +4827,10 @@
         <v>2</v>
       </c>
       <c r="P5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R5">
         <v>1.2150000000000001</v>
@@ -4838,7 +4838,7 @@
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B6">
         <v>4</v>
@@ -4847,7 +4847,7 @@
         <v>30</v>
       </c>
       <c r="D6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E6" s="24">
         <v>4</v>
@@ -4856,7 +4856,7 @@
         <v>45</v>
       </c>
       <c r="G6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H6" s="24">
         <v>4</v>
@@ -4868,10 +4868,10 @@
         <v>3</v>
       </c>
       <c r="K6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L6" s="24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M6">
         <v>10.935</v>
@@ -4883,10 +4883,10 @@
         <v>3</v>
       </c>
       <c r="P6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R6">
         <v>1.0934999999999999</v>
@@ -4894,7 +4894,7 @@
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B7">
         <v>5</v>
@@ -4903,7 +4903,7 @@
         <v>30</v>
       </c>
       <c r="D7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E7" s="24">
         <v>5</v>
@@ -4912,7 +4912,7 @@
         <v>45</v>
       </c>
       <c r="G7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H7" s="24">
         <v>5</v>
@@ -4924,10 +4924,10 @@
         <v>4</v>
       </c>
       <c r="K7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L7" s="24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M7">
         <v>9.8414999999999999</v>
@@ -4939,10 +4939,10 @@
         <v>4</v>
       </c>
       <c r="P7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R7">
         <v>0.98414999999999997</v>
@@ -4950,7 +4950,7 @@
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B8">
         <v>6</v>
@@ -4959,7 +4959,7 @@
         <v>30</v>
       </c>
       <c r="D8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E8" s="24">
         <v>6</v>
@@ -4968,7 +4968,7 @@
         <v>45</v>
       </c>
       <c r="G8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H8" s="24">
         <v>6</v>
@@ -4980,10 +4980,10 @@
         <v>5</v>
       </c>
       <c r="K8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L8" s="24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M8">
         <v>8.8573500000000003</v>
@@ -4995,10 +4995,10 @@
         <v>5</v>
       </c>
       <c r="P8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R8">
         <v>0.88573500000000005</v>
@@ -5006,7 +5006,7 @@
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B9">
         <v>7</v>
@@ -5015,7 +5015,7 @@
         <v>30</v>
       </c>
       <c r="D9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E9" s="24">
         <v>7</v>
@@ -5024,7 +5024,7 @@
         <v>45</v>
       </c>
       <c r="G9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H9" s="24">
         <v>7</v>
@@ -5036,10 +5036,10 @@
         <v>6</v>
       </c>
       <c r="K9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L9" s="24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M9">
         <v>7.9716149999999999</v>
@@ -5051,10 +5051,10 @@
         <v>6</v>
       </c>
       <c r="P9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R9">
         <v>0.79716149999999997</v>
@@ -5062,7 +5062,7 @@
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B10">
         <v>8</v>
@@ -5071,7 +5071,7 @@
         <v>30</v>
       </c>
       <c r="D10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E10" s="24">
         <v>8</v>
@@ -5080,7 +5080,7 @@
         <v>45</v>
       </c>
       <c r="G10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H10" s="24">
         <v>8</v>
@@ -5092,10 +5092,10 @@
         <v>7</v>
       </c>
       <c r="K10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L10" s="24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M10">
         <v>7.1744535000000003</v>
@@ -5107,10 +5107,10 @@
         <v>7</v>
       </c>
       <c r="P10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R10">
         <v>0.71744534999999998</v>
@@ -5118,7 +5118,7 @@
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B11">
         <v>9</v>
@@ -5127,7 +5127,7 @@
         <v>30</v>
       </c>
       <c r="D11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E11" s="24">
         <v>9</v>
@@ -5136,7 +5136,7 @@
         <v>45</v>
       </c>
       <c r="G11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H11" s="24">
         <v>9</v>
@@ -5148,10 +5148,10 @@
         <v>8</v>
       </c>
       <c r="K11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L11" s="24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M11">
         <v>6.4570081500000001</v>
@@ -5163,10 +5163,10 @@
         <v>8</v>
       </c>
       <c r="P11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R11">
         <v>0.64570081499999998</v>
@@ -5174,7 +5174,7 @@
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B12">
         <v>10</v>
@@ -5183,7 +5183,7 @@
         <v>30</v>
       </c>
       <c r="D12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E12" s="24">
         <v>10</v>
@@ -5192,7 +5192,7 @@
         <v>45</v>
       </c>
       <c r="G12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H12" s="24">
         <v>10</v>
@@ -5204,10 +5204,10 @@
         <v>9</v>
       </c>
       <c r="K12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L12" s="24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M12">
         <v>5.8113073350000004</v>
@@ -5219,10 +5219,10 @@
         <v>9</v>
       </c>
       <c r="P12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R12">
         <v>0.5811307335</v>
@@ -5230,7 +5230,7 @@
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -5239,7 +5239,7 @@
         <v>30</v>
       </c>
       <c r="D13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E13" s="24">
         <v>1</v>
@@ -5248,7 +5248,7 @@
         <v>45</v>
       </c>
       <c r="G13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H13" s="24">
         <v>1</v>
@@ -5260,10 +5260,10 @@
         <v>10</v>
       </c>
       <c r="K13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L13" s="24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M13">
         <v>5.2301766015000002</v>
@@ -5275,10 +5275,10 @@
         <v>10</v>
       </c>
       <c r="P13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R13">
         <v>0.52301766014999995</v>
@@ -5286,7 +5286,7 @@
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B14">
         <v>2</v>
@@ -5295,7 +5295,7 @@
         <v>30</v>
       </c>
       <c r="D14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E14" s="24">
         <v>2</v>
@@ -5304,7 +5304,7 @@
         <v>45</v>
       </c>
       <c r="G14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H14" s="24">
         <v>2</v>
@@ -5316,10 +5316,10 @@
         <v>0</v>
       </c>
       <c r="K14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L14" s="24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M14">
         <v>15</v>
@@ -5331,10 +5331,10 @@
         <v>0</v>
       </c>
       <c r="P14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R14">
         <v>1.5</v>
@@ -5342,7 +5342,7 @@
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B15">
         <v>3</v>
@@ -5351,7 +5351,7 @@
         <v>30</v>
       </c>
       <c r="D15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E15" s="24">
         <v>3</v>
@@ -5360,7 +5360,7 @@
         <v>45</v>
       </c>
       <c r="G15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H15" s="24">
         <v>3</v>
@@ -5372,10 +5372,10 @@
         <v>1</v>
       </c>
       <c r="K15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L15" s="24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M15">
         <v>13.5</v>
@@ -5387,10 +5387,10 @@
         <v>1</v>
       </c>
       <c r="P15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R15">
         <v>1.35</v>
@@ -5398,7 +5398,7 @@
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B16">
         <v>4</v>
@@ -5407,7 +5407,7 @@
         <v>30</v>
       </c>
       <c r="D16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E16" s="24">
         <v>4</v>
@@ -5416,7 +5416,7 @@
         <v>45</v>
       </c>
       <c r="G16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H16" s="24">
         <v>4</v>
@@ -5428,10 +5428,10 @@
         <v>2</v>
       </c>
       <c r="K16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L16" s="24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M16">
         <v>12.15</v>
@@ -5443,10 +5443,10 @@
         <v>2</v>
       </c>
       <c r="P16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R16">
         <v>1.2150000000000001</v>
@@ -5454,7 +5454,7 @@
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B17">
         <v>5</v>
@@ -5463,7 +5463,7 @@
         <v>30</v>
       </c>
       <c r="D17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E17" s="24">
         <v>5</v>
@@ -5472,7 +5472,7 @@
         <v>45</v>
       </c>
       <c r="G17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H17" s="24">
         <v>5</v>
@@ -5484,10 +5484,10 @@
         <v>3</v>
       </c>
       <c r="K17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L17" s="24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M17">
         <v>10.935</v>
@@ -5499,10 +5499,10 @@
         <v>3</v>
       </c>
       <c r="P17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R17">
         <v>1.0934999999999999</v>
@@ -5510,7 +5510,7 @@
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B18">
         <v>6</v>
@@ -5519,7 +5519,7 @@
         <v>30</v>
       </c>
       <c r="D18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E18" s="24">
         <v>6</v>
@@ -5528,7 +5528,7 @@
         <v>45</v>
       </c>
       <c r="G18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H18" s="24">
         <v>6</v>
@@ -5540,10 +5540,10 @@
         <v>4</v>
       </c>
       <c r="K18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L18" s="24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M18">
         <v>9.8414999999999999</v>
@@ -5555,10 +5555,10 @@
         <v>4</v>
       </c>
       <c r="P18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R18">
         <v>0.98414999999999997</v>
@@ -5566,7 +5566,7 @@
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B19">
         <v>7</v>
@@ -5575,7 +5575,7 @@
         <v>30</v>
       </c>
       <c r="D19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E19" s="24">
         <v>7</v>
@@ -5584,7 +5584,7 @@
         <v>45</v>
       </c>
       <c r="G19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H19" s="24">
         <v>7</v>
@@ -5596,10 +5596,10 @@
         <v>5</v>
       </c>
       <c r="K19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L19" s="24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M19">
         <v>8.8573500000000003</v>
@@ -5611,10 +5611,10 @@
         <v>5</v>
       </c>
       <c r="P19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R19">
         <v>0.88573500000000005</v>
@@ -5622,7 +5622,7 @@
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B20">
         <v>8</v>
@@ -5631,7 +5631,7 @@
         <v>30</v>
       </c>
       <c r="D20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E20" s="24">
         <v>8</v>
@@ -5640,7 +5640,7 @@
         <v>45</v>
       </c>
       <c r="G20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H20" s="24">
         <v>8</v>
@@ -5652,10 +5652,10 @@
         <v>6</v>
       </c>
       <c r="K20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L20" s="24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M20">
         <v>7.9716149999999999</v>
@@ -5667,10 +5667,10 @@
         <v>6</v>
       </c>
       <c r="P20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R20">
         <v>0.79716149999999997</v>
@@ -5678,7 +5678,7 @@
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B21">
         <v>9</v>
@@ -5687,7 +5687,7 @@
         <v>30</v>
       </c>
       <c r="D21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E21" s="24">
         <v>9</v>
@@ -5696,7 +5696,7 @@
         <v>45</v>
       </c>
       <c r="G21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H21" s="24">
         <v>9</v>
@@ -5708,10 +5708,10 @@
         <v>7</v>
       </c>
       <c r="K21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L21" s="24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M21">
         <v>7.1744535000000003</v>
@@ -5723,10 +5723,10 @@
         <v>7</v>
       </c>
       <c r="P21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R21">
         <v>0.71744534999999998</v>
@@ -5734,7 +5734,7 @@
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B22">
         <v>10</v>
@@ -5743,7 +5743,7 @@
         <v>30</v>
       </c>
       <c r="D22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E22" s="24">
         <v>10</v>
@@ -5752,7 +5752,7 @@
         <v>45</v>
       </c>
       <c r="G22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H22" s="24">
         <v>10</v>
@@ -5764,10 +5764,10 @@
         <v>8</v>
       </c>
       <c r="K22" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L22" s="24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M22">
         <v>6.4570081500000001</v>
@@ -5779,10 +5779,10 @@
         <v>8</v>
       </c>
       <c r="P22" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q22" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R22">
         <v>0.64570081499999998</v>
@@ -5795,10 +5795,10 @@
         <v>9</v>
       </c>
       <c r="K23" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L23" s="24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M23">
         <v>5.8113073350000004</v>
@@ -5810,10 +5810,10 @@
         <v>9</v>
       </c>
       <c r="P23" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R23">
         <v>0.5811307335</v>
@@ -5826,10 +5826,10 @@
         <v>10</v>
       </c>
       <c r="K24" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L24" s="24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M24">
         <v>5.2301766015000002</v>
@@ -5841,10 +5841,10 @@
         <v>10</v>
       </c>
       <c r="P24" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R24">
         <v>0.52301766014999995</v>
@@ -5857,10 +5857,10 @@
         <v>0</v>
       </c>
       <c r="K25" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L25" s="24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M25">
         <v>15</v>
@@ -5872,10 +5872,10 @@
         <v>0</v>
       </c>
       <c r="P25" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q25" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R25">
         <v>1.5</v>
@@ -5888,10 +5888,10 @@
         <v>1</v>
       </c>
       <c r="K26" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L26" s="24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M26">
         <v>13.5</v>
@@ -5903,10 +5903,10 @@
         <v>1</v>
       </c>
       <c r="P26" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q26" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R26">
         <v>1.35</v>
@@ -5919,10 +5919,10 @@
         <v>2</v>
       </c>
       <c r="K27" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L27" s="24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M27">
         <v>12.15</v>
@@ -5934,10 +5934,10 @@
         <v>2</v>
       </c>
       <c r="P27" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q27" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R27">
         <v>1.2150000000000001</v>
@@ -5950,10 +5950,10 @@
         <v>3</v>
       </c>
       <c r="K28" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L28" s="24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M28">
         <v>10.935</v>
@@ -5965,10 +5965,10 @@
         <v>3</v>
       </c>
       <c r="P28" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q28" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R28">
         <v>1.0934999999999999</v>
@@ -5981,10 +5981,10 @@
         <v>4</v>
       </c>
       <c r="K29" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L29" s="24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M29">
         <v>9.8414999999999999</v>
@@ -5996,10 +5996,10 @@
         <v>4</v>
       </c>
       <c r="P29" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q29" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R29">
         <v>0.98414999999999997</v>
@@ -6012,10 +6012,10 @@
         <v>5</v>
       </c>
       <c r="K30" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L30" s="24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M30">
         <v>8.8573500000000003</v>
@@ -6027,10 +6027,10 @@
         <v>5</v>
       </c>
       <c r="P30" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q30" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R30">
         <v>0.88573500000000005</v>
@@ -6043,10 +6043,10 @@
         <v>6</v>
       </c>
       <c r="K31" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L31" s="24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M31">
         <v>7.9716149999999999</v>
@@ -6058,10 +6058,10 @@
         <v>6</v>
       </c>
       <c r="P31" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q31" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R31">
         <v>0.79716149999999997</v>
@@ -6074,10 +6074,10 @@
         <v>7</v>
       </c>
       <c r="K32" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L32" s="24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M32">
         <v>7.1744535000000003</v>
@@ -6089,10 +6089,10 @@
         <v>7</v>
       </c>
       <c r="P32" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R32">
         <v>0.71744534999999998</v>
@@ -6105,10 +6105,10 @@
         <v>8</v>
       </c>
       <c r="K33" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L33" s="24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M33">
         <v>6.4570081500000001</v>
@@ -6120,10 +6120,10 @@
         <v>8</v>
       </c>
       <c r="P33" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q33" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R33">
         <v>0.64570081499999998</v>
@@ -6136,10 +6136,10 @@
         <v>9</v>
       </c>
       <c r="K34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L34" s="24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M34">
         <v>5.8113073350000004</v>
@@ -6151,10 +6151,10 @@
         <v>9</v>
       </c>
       <c r="P34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q34" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R34">
         <v>0.5811307335</v>
@@ -6167,10 +6167,10 @@
         <v>10</v>
       </c>
       <c r="K35" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L35" s="24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M35">
         <v>5.2301766015000002</v>
@@ -6182,10 +6182,10 @@
         <v>10</v>
       </c>
       <c r="P35" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q35" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R35">
         <v>0.52301766014999995</v>
@@ -6198,10 +6198,10 @@
         <v>0</v>
       </c>
       <c r="K36" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L36" s="24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M36">
         <v>15</v>
@@ -6213,10 +6213,10 @@
         <v>0</v>
       </c>
       <c r="P36" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q36" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R36">
         <v>1.5</v>
@@ -6229,10 +6229,10 @@
         <v>1</v>
       </c>
       <c r="K37" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L37" s="24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M37">
         <v>13.5</v>
@@ -6244,10 +6244,10 @@
         <v>1</v>
       </c>
       <c r="P37" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q37" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R37">
         <v>1.35</v>
@@ -6260,10 +6260,10 @@
         <v>2</v>
       </c>
       <c r="K38" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L38" s="24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M38">
         <v>12.15</v>
@@ -6275,10 +6275,10 @@
         <v>2</v>
       </c>
       <c r="P38" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q38" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R38">
         <v>1.2150000000000001</v>
@@ -6291,10 +6291,10 @@
         <v>3</v>
       </c>
       <c r="K39" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L39" s="24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M39">
         <v>10.935</v>
@@ -6306,10 +6306,10 @@
         <v>3</v>
       </c>
       <c r="P39" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q39" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R39">
         <v>1.0934999999999999</v>
@@ -6322,10 +6322,10 @@
         <v>4</v>
       </c>
       <c r="K40" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L40" s="24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M40">
         <v>9.8414999999999999</v>
@@ -6337,10 +6337,10 @@
         <v>4</v>
       </c>
       <c r="P40" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q40" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R40">
         <v>0.98414999999999997</v>
@@ -6353,10 +6353,10 @@
         <v>5</v>
       </c>
       <c r="K41" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L41" s="24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M41">
         <v>8.8573500000000003</v>
@@ -6368,10 +6368,10 @@
         <v>5</v>
       </c>
       <c r="P41" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q41" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R41">
         <v>0.88573500000000005</v>
@@ -6384,10 +6384,10 @@
         <v>6</v>
       </c>
       <c r="K42" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L42" s="24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M42">
         <v>7.9716149999999999</v>
@@ -6399,10 +6399,10 @@
         <v>6</v>
       </c>
       <c r="P42" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q42" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R42">
         <v>0.79716149999999997</v>
@@ -6415,10 +6415,10 @@
         <v>7</v>
       </c>
       <c r="K43" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L43" s="24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M43">
         <v>7.1744535000000003</v>
@@ -6430,10 +6430,10 @@
         <v>7</v>
       </c>
       <c r="P43" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q43" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R43">
         <v>0.71744534999999998</v>
@@ -6446,10 +6446,10 @@
         <v>8</v>
       </c>
       <c r="K44" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L44" s="24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M44">
         <v>6.4570081500000001</v>
@@ -6461,10 +6461,10 @@
         <v>8</v>
       </c>
       <c r="P44" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q44" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R44">
         <v>0.64570081499999998</v>
@@ -6477,10 +6477,10 @@
         <v>9</v>
       </c>
       <c r="K45" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L45" s="24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M45">
         <v>5.8113073350000004</v>
@@ -6492,10 +6492,10 @@
         <v>9</v>
       </c>
       <c r="P45" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q45" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R45">
         <v>0.5811307335</v>
@@ -6508,10 +6508,10 @@
         <v>10</v>
       </c>
       <c r="K46" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L46" s="24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M46">
         <v>5.2301766015000002</v>
@@ -6523,10 +6523,10 @@
         <v>10</v>
       </c>
       <c r="P46" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q46" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R46">
         <v>0.52301766014999995</v>
@@ -6543,10 +6543,10 @@
         <v>0</v>
       </c>
       <c r="P47" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q47" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R47">
         <v>1.5</v>
@@ -6563,10 +6563,10 @@
         <v>1</v>
       </c>
       <c r="P48" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q48" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R48">
         <v>1.35</v>
@@ -6583,10 +6583,10 @@
         <v>2</v>
       </c>
       <c r="P49" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q49" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R49">
         <v>1.2150000000000001</v>
@@ -6603,10 +6603,10 @@
         <v>3</v>
       </c>
       <c r="P50" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q50" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R50">
         <v>1.0934999999999999</v>
@@ -6623,10 +6623,10 @@
         <v>4</v>
       </c>
       <c r="P51" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q51" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R51">
         <v>0.98414999999999997</v>
@@ -6643,10 +6643,10 @@
         <v>5</v>
       </c>
       <c r="P52" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q52" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R52">
         <v>0.88573500000000005</v>
@@ -6661,10 +6661,10 @@
         <v>6</v>
       </c>
       <c r="P53" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q53" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R53">
         <v>0.79716149999999997</v>
@@ -6679,10 +6679,10 @@
         <v>7</v>
       </c>
       <c r="P54" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q54" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R54">
         <v>0.71744534999999998</v>
@@ -6697,10 +6697,10 @@
         <v>8</v>
       </c>
       <c r="P55" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q55" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R55">
         <v>0.64570081499999998</v>
@@ -6715,10 +6715,10 @@
         <v>9</v>
       </c>
       <c r="P56" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q56" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R56">
         <v>0.5811307335</v>
@@ -6733,10 +6733,10 @@
         <v>10</v>
       </c>
       <c r="P57" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q57" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R57">
         <v>0.52301766014999995</v>
@@ -6751,10 +6751,10 @@
         <v>0</v>
       </c>
       <c r="P58" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q58" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R58">
         <v>1.5</v>
@@ -6769,10 +6769,10 @@
         <v>1</v>
       </c>
       <c r="P59" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q59" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R59">
         <v>1.35</v>
@@ -6787,10 +6787,10 @@
         <v>2</v>
       </c>
       <c r="P60" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q60" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R60">
         <v>1.2150000000000001</v>
@@ -6805,10 +6805,10 @@
         <v>3</v>
       </c>
       <c r="P61" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q61" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R61">
         <v>1.0934999999999999</v>
@@ -6823,10 +6823,10 @@
         <v>4</v>
       </c>
       <c r="P62" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q62" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R62">
         <v>0.98414999999999997</v>
@@ -6841,10 +6841,10 @@
         <v>5</v>
       </c>
       <c r="P63" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q63" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R63">
         <v>0.88573500000000005</v>
@@ -6858,10 +6858,10 @@
         <v>6</v>
       </c>
       <c r="P64" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q64" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R64">
         <v>0.79716149999999997</v>
@@ -6875,10 +6875,10 @@
         <v>7</v>
       </c>
       <c r="P65" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q65" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R65">
         <v>0.71744534999999998</v>
@@ -6892,10 +6892,10 @@
         <v>8</v>
       </c>
       <c r="P66" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q66" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R66">
         <v>0.64570081499999998</v>
@@ -6909,10 +6909,10 @@
         <v>9</v>
       </c>
       <c r="P67" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q67" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R67">
         <v>0.5811307335</v>
@@ -6926,10 +6926,10 @@
         <v>10</v>
       </c>
       <c r="P68" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q68" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R68">
         <v>0.52301766014999995</v>
@@ -6943,10 +6943,10 @@
         <v>0</v>
       </c>
       <c r="P69" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q69" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R69">
         <v>1.5</v>
@@ -6960,10 +6960,10 @@
         <v>1</v>
       </c>
       <c r="P70" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q70" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R70">
         <v>1.35</v>
@@ -6977,10 +6977,10 @@
         <v>2</v>
       </c>
       <c r="P71" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q71" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R71">
         <v>1.2150000000000001</v>
@@ -6994,10 +6994,10 @@
         <v>3</v>
       </c>
       <c r="P72" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q72" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R72">
         <v>1.0934999999999999</v>
@@ -7011,10 +7011,10 @@
         <v>4</v>
       </c>
       <c r="P73" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q73" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R73">
         <v>0.98414999999999997</v>
@@ -7028,10 +7028,10 @@
         <v>5</v>
       </c>
       <c r="P74" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q74" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R74">
         <v>0.88573500000000005</v>
@@ -7045,10 +7045,10 @@
         <v>6</v>
       </c>
       <c r="P75" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q75" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R75">
         <v>0.79716149999999997</v>
@@ -7062,10 +7062,10 @@
         <v>7</v>
       </c>
       <c r="P76" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q76" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R76">
         <v>0.71744534999999998</v>
@@ -7079,10 +7079,10 @@
         <v>8</v>
       </c>
       <c r="P77" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q77" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R77">
         <v>0.64570081499999998</v>
@@ -7096,10 +7096,10 @@
         <v>9</v>
       </c>
       <c r="P78" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q78" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R78">
         <v>0.5811307335</v>
@@ -7113,10 +7113,10 @@
         <v>10</v>
       </c>
       <c r="P79" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q79" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R79">
         <v>0.52301766014999995</v>
@@ -7130,10 +7130,10 @@
         <v>0</v>
       </c>
       <c r="P80" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q80" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R80">
         <v>1.5</v>
@@ -7147,10 +7147,10 @@
         <v>1</v>
       </c>
       <c r="P81" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q81" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R81">
         <v>1.35</v>
@@ -7164,10 +7164,10 @@
         <v>2</v>
       </c>
       <c r="P82" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q82" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R82">
         <v>1.2150000000000001</v>
@@ -7181,10 +7181,10 @@
         <v>3</v>
       </c>
       <c r="P83" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q83" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R83">
         <v>1.0934999999999999</v>
@@ -7198,10 +7198,10 @@
         <v>4</v>
       </c>
       <c r="P84" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q84" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R84">
         <v>0.98414999999999997</v>
@@ -7215,10 +7215,10 @@
         <v>5</v>
       </c>
       <c r="P85" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q85" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R85">
         <v>0.88573500000000005</v>
@@ -7232,10 +7232,10 @@
         <v>6</v>
       </c>
       <c r="P86" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q86" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R86">
         <v>0.79716149999999997</v>
@@ -7249,10 +7249,10 @@
         <v>7</v>
       </c>
       <c r="P87" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q87" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R87">
         <v>0.71744534999999998</v>
@@ -7266,10 +7266,10 @@
         <v>8</v>
       </c>
       <c r="P88" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q88" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R88">
         <v>0.64570081499999998</v>
@@ -7283,10 +7283,10 @@
         <v>9</v>
       </c>
       <c r="P89" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q89" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R89">
         <v>0.5811307335</v>
@@ -7300,10 +7300,10 @@
         <v>10</v>
       </c>
       <c r="P90" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q90" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R90">
         <v>0.52301766014999995</v>
@@ -7317,10 +7317,10 @@
         <v>0</v>
       </c>
       <c r="P91" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q91" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R91">
         <v>1.5</v>
@@ -7334,10 +7334,10 @@
         <v>1</v>
       </c>
       <c r="P92" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q92" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R92">
         <v>1.35</v>
@@ -7351,10 +7351,10 @@
         <v>2</v>
       </c>
       <c r="P93" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q93" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R93">
         <v>1.2150000000000001</v>
@@ -7368,10 +7368,10 @@
         <v>3</v>
       </c>
       <c r="P94" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q94" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R94">
         <v>1.0934999999999999</v>
@@ -7385,10 +7385,10 @@
         <v>4</v>
       </c>
       <c r="P95" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q95" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R95">
         <v>0.98414999999999997</v>
@@ -7402,10 +7402,10 @@
         <v>5</v>
       </c>
       <c r="P96" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q96" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R96">
         <v>0.88573500000000005</v>
@@ -7419,10 +7419,10 @@
         <v>6</v>
       </c>
       <c r="P97" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q97" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R97">
         <v>0.79716149999999997</v>
@@ -7436,10 +7436,10 @@
         <v>7</v>
       </c>
       <c r="P98" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q98" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R98">
         <v>0.71744534999999998</v>
@@ -7453,10 +7453,10 @@
         <v>8</v>
       </c>
       <c r="P99" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q99" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R99">
         <v>0.64570081499999998</v>
@@ -7470,10 +7470,10 @@
         <v>9</v>
       </c>
       <c r="P100" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q100" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R100">
         <v>0.5811307335</v>
@@ -7487,10 +7487,10 @@
         <v>10</v>
       </c>
       <c r="P101" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q101" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R101">
         <v>0.52301766014999995</v>
@@ -7504,10 +7504,10 @@
         <v>0</v>
       </c>
       <c r="P102" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q102" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R102">
         <v>1.5</v>
@@ -7521,10 +7521,10 @@
         <v>1</v>
       </c>
       <c r="P103" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q103" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R103">
         <v>1.35</v>
@@ -7538,10 +7538,10 @@
         <v>2</v>
       </c>
       <c r="P104" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q104" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R104">
         <v>1.2150000000000001</v>
@@ -7555,10 +7555,10 @@
         <v>3</v>
       </c>
       <c r="P105" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q105" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R105">
         <v>1.0934999999999999</v>
@@ -7572,10 +7572,10 @@
         <v>4</v>
       </c>
       <c r="P106" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q106" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R106">
         <v>0.98414999999999997</v>
@@ -7589,10 +7589,10 @@
         <v>5</v>
       </c>
       <c r="P107" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q107" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R107">
         <v>0.88573500000000005</v>
@@ -7606,10 +7606,10 @@
         <v>6</v>
       </c>
       <c r="P108" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q108" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R108">
         <v>0.79716149999999997</v>
@@ -7623,10 +7623,10 @@
         <v>7</v>
       </c>
       <c r="P109" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q109" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R109">
         <v>0.71744534999999998</v>
@@ -7640,10 +7640,10 @@
         <v>8</v>
       </c>
       <c r="P110" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q110" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R110">
         <v>0.64570081499999998</v>
@@ -7657,10 +7657,10 @@
         <v>9</v>
       </c>
       <c r="P111" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q111" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R111">
         <v>0.5811307335</v>
@@ -7674,10 +7674,10 @@
         <v>10</v>
       </c>
       <c r="P112" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q112" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R112">
         <v>0.52301766014999995</v>
@@ -7691,10 +7691,10 @@
         <v>0</v>
       </c>
       <c r="P113" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q113" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="114" spans="14:17" x14ac:dyDescent="0.25">
@@ -7705,10 +7705,10 @@
         <v>1</v>
       </c>
       <c r="P114" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q114" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="115" spans="14:17" x14ac:dyDescent="0.25">
@@ -7719,10 +7719,10 @@
         <v>2</v>
       </c>
       <c r="P115" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q115" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="116" spans="14:17" x14ac:dyDescent="0.25">
@@ -7733,10 +7733,10 @@
         <v>3</v>
       </c>
       <c r="P116" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q116" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="117" spans="14:17" x14ac:dyDescent="0.25">
@@ -7747,10 +7747,10 @@
         <v>4</v>
       </c>
       <c r="P117" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q117" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="118" spans="14:17" x14ac:dyDescent="0.25">
@@ -7761,10 +7761,10 @@
         <v>5</v>
       </c>
       <c r="P118" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q118" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="119" spans="14:17" x14ac:dyDescent="0.25">
@@ -7775,10 +7775,10 @@
         <v>6</v>
       </c>
       <c r="P119" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q119" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="120" spans="14:17" x14ac:dyDescent="0.25">
@@ -7789,10 +7789,10 @@
         <v>7</v>
       </c>
       <c r="P120" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q120" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="121" spans="14:17" x14ac:dyDescent="0.25">
@@ -7803,10 +7803,10 @@
         <v>8</v>
       </c>
       <c r="P121" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q121" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="122" spans="14:17" x14ac:dyDescent="0.25">
@@ -7817,10 +7817,10 @@
         <v>9</v>
       </c>
       <c r="P122" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q122" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="123" spans="14:17" x14ac:dyDescent="0.25">
@@ -7831,10 +7831,10 @@
         <v>10</v>
       </c>
       <c r="P123" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q123" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="124" spans="14:17" x14ac:dyDescent="0.25">
@@ -7845,10 +7845,10 @@
         <v>0</v>
       </c>
       <c r="P124" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q124" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="125" spans="14:17" x14ac:dyDescent="0.25">
@@ -7859,10 +7859,10 @@
         <v>1</v>
       </c>
       <c r="P125" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q125" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="126" spans="14:17" x14ac:dyDescent="0.25">
@@ -7873,10 +7873,10 @@
         <v>2</v>
       </c>
       <c r="P126" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q126" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="127" spans="14:17" x14ac:dyDescent="0.25">
@@ -7887,10 +7887,10 @@
         <v>3</v>
       </c>
       <c r="P127" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q127" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="128" spans="14:17" x14ac:dyDescent="0.25">
@@ -7901,10 +7901,10 @@
         <v>4</v>
       </c>
       <c r="P128" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q128" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="129" spans="14:17" x14ac:dyDescent="0.25">
@@ -7915,10 +7915,10 @@
         <v>5</v>
       </c>
       <c r="P129" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q129" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="130" spans="14:17" x14ac:dyDescent="0.25">
@@ -7929,10 +7929,10 @@
         <v>6</v>
       </c>
       <c r="P130" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q130" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="131" spans="14:17" x14ac:dyDescent="0.25">
@@ -7943,10 +7943,10 @@
         <v>7</v>
       </c>
       <c r="P131" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q131" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="132" spans="14:17" x14ac:dyDescent="0.25">
@@ -7957,10 +7957,10 @@
         <v>8</v>
       </c>
       <c r="P132" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q132" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="133" spans="14:17" x14ac:dyDescent="0.25">
@@ -7971,10 +7971,10 @@
         <v>9</v>
       </c>
       <c r="P133" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q133" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="134" spans="14:17" x14ac:dyDescent="0.25">
@@ -7985,10 +7985,10 @@
         <v>10</v>
       </c>
       <c r="P134" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q134" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="135" spans="14:17" x14ac:dyDescent="0.25">
@@ -7999,10 +7999,10 @@
         <v>0</v>
       </c>
       <c r="P135" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q135" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="136" spans="14:17" x14ac:dyDescent="0.25">
@@ -8013,10 +8013,10 @@
         <v>1</v>
       </c>
       <c r="P136" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q136" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="137" spans="14:17" x14ac:dyDescent="0.25">
@@ -8027,10 +8027,10 @@
         <v>2</v>
       </c>
       <c r="P137" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q137" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="138" spans="14:17" x14ac:dyDescent="0.25">
@@ -8041,10 +8041,10 @@
         <v>3</v>
       </c>
       <c r="P138" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q138" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="139" spans="14:17" x14ac:dyDescent="0.25">
@@ -8055,10 +8055,10 @@
         <v>4</v>
       </c>
       <c r="P139" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q139" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="140" spans="14:17" x14ac:dyDescent="0.25">
@@ -8069,10 +8069,10 @@
         <v>5</v>
       </c>
       <c r="P140" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q140" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="141" spans="14:17" x14ac:dyDescent="0.25">
@@ -8083,10 +8083,10 @@
         <v>6</v>
       </c>
       <c r="P141" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q141" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="142" spans="14:17" x14ac:dyDescent="0.25">
@@ -8097,10 +8097,10 @@
         <v>7</v>
       </c>
       <c r="P142" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q142" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="143" spans="14:17" x14ac:dyDescent="0.25">
@@ -8111,10 +8111,10 @@
         <v>8</v>
       </c>
       <c r="P143" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q143" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="144" spans="14:17" x14ac:dyDescent="0.25">
@@ -8125,10 +8125,10 @@
         <v>9</v>
       </c>
       <c r="P144" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q144" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="145" spans="14:17" x14ac:dyDescent="0.25">
@@ -8139,10 +8139,10 @@
         <v>10</v>
       </c>
       <c r="P145" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q145" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="146" spans="14:17" x14ac:dyDescent="0.25">
@@ -8153,10 +8153,10 @@
         <v>0</v>
       </c>
       <c r="P146" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q146" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="147" spans="14:17" x14ac:dyDescent="0.25">
@@ -8167,10 +8167,10 @@
         <v>1</v>
       </c>
       <c r="P147" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q147" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="148" spans="14:17" x14ac:dyDescent="0.25">
@@ -8181,10 +8181,10 @@
         <v>2</v>
       </c>
       <c r="P148" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q148" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="149" spans="14:17" x14ac:dyDescent="0.25">
@@ -8195,10 +8195,10 @@
         <v>3</v>
       </c>
       <c r="P149" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q149" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="150" spans="14:17" x14ac:dyDescent="0.25">
@@ -8209,10 +8209,10 @@
         <v>4</v>
       </c>
       <c r="P150" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q150" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="151" spans="14:17" x14ac:dyDescent="0.25">
@@ -8223,10 +8223,10 @@
         <v>5</v>
       </c>
       <c r="P151" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q151" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="152" spans="14:17" x14ac:dyDescent="0.25">
@@ -8237,10 +8237,10 @@
         <v>6</v>
       </c>
       <c r="P152" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q152" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="153" spans="14:17" x14ac:dyDescent="0.25">
@@ -8251,10 +8251,10 @@
         <v>7</v>
       </c>
       <c r="P153" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q153" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="154" spans="14:17" x14ac:dyDescent="0.25">
@@ -8265,10 +8265,10 @@
         <v>8</v>
       </c>
       <c r="P154" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q154" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="155" spans="14:17" x14ac:dyDescent="0.25">
@@ -8279,10 +8279,10 @@
         <v>9</v>
       </c>
       <c r="P155" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q155" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="156" spans="14:17" x14ac:dyDescent="0.25">
@@ -8293,10 +8293,10 @@
         <v>10</v>
       </c>
       <c r="P156" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q156" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="157" spans="14:17" x14ac:dyDescent="0.25">
@@ -8307,10 +8307,10 @@
         <v>0</v>
       </c>
       <c r="P157" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q157" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="158" spans="14:17" x14ac:dyDescent="0.25">
@@ -8321,10 +8321,10 @@
         <v>1</v>
       </c>
       <c r="P158" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q158" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="159" spans="14:17" x14ac:dyDescent="0.25">
@@ -8335,10 +8335,10 @@
         <v>2</v>
       </c>
       <c r="P159" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q159" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="160" spans="14:17" x14ac:dyDescent="0.25">
@@ -8349,10 +8349,10 @@
         <v>3</v>
       </c>
       <c r="P160" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q160" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="161" spans="14:17" x14ac:dyDescent="0.25">
@@ -8363,10 +8363,10 @@
         <v>4</v>
       </c>
       <c r="P161" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q161" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="162" spans="14:17" x14ac:dyDescent="0.25">
@@ -8377,10 +8377,10 @@
         <v>5</v>
       </c>
       <c r="P162" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q162" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="163" spans="14:17" x14ac:dyDescent="0.25">
@@ -8391,10 +8391,10 @@
         <v>6</v>
       </c>
       <c r="P163" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q163" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="164" spans="14:17" x14ac:dyDescent="0.25">
@@ -8405,10 +8405,10 @@
         <v>7</v>
       </c>
       <c r="P164" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q164" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="165" spans="14:17" x14ac:dyDescent="0.25">
@@ -8419,10 +8419,10 @@
         <v>8</v>
       </c>
       <c r="P165" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q165" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="166" spans="14:17" x14ac:dyDescent="0.25">
@@ -8433,10 +8433,10 @@
         <v>9</v>
       </c>
       <c r="P166" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q166" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="167" spans="14:17" x14ac:dyDescent="0.25">
@@ -8447,10 +8447,10 @@
         <v>10</v>
       </c>
       <c r="P167" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q167" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="168" spans="14:17" x14ac:dyDescent="0.25">
@@ -8461,10 +8461,10 @@
         <v>0</v>
       </c>
       <c r="P168" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q168" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="169" spans="14:17" x14ac:dyDescent="0.25">
@@ -8475,10 +8475,10 @@
         <v>1</v>
       </c>
       <c r="P169" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q169" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="170" spans="14:17" x14ac:dyDescent="0.25">
@@ -8489,10 +8489,10 @@
         <v>2</v>
       </c>
       <c r="P170" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q170" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="171" spans="14:17" x14ac:dyDescent="0.25">
@@ -8503,10 +8503,10 @@
         <v>3</v>
       </c>
       <c r="P171" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q171" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="172" spans="14:17" x14ac:dyDescent="0.25">
@@ -8517,10 +8517,10 @@
         <v>4</v>
       </c>
       <c r="P172" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q172" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="173" spans="14:17" x14ac:dyDescent="0.25">
@@ -8531,10 +8531,10 @@
         <v>5</v>
       </c>
       <c r="P173" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q173" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="174" spans="14:17" x14ac:dyDescent="0.25">
@@ -8545,10 +8545,10 @@
         <v>6</v>
       </c>
       <c r="P174" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q174" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="175" spans="14:17" x14ac:dyDescent="0.25">
@@ -8559,10 +8559,10 @@
         <v>7</v>
       </c>
       <c r="P175" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q175" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="176" spans="14:17" x14ac:dyDescent="0.25">
@@ -8573,10 +8573,10 @@
         <v>8</v>
       </c>
       <c r="P176" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q176" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="177" spans="14:17" x14ac:dyDescent="0.25">
@@ -8587,10 +8587,10 @@
         <v>9</v>
       </c>
       <c r="P177" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q177" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="178" spans="14:17" x14ac:dyDescent="0.25">
@@ -8601,10 +8601,10 @@
         <v>10</v>
       </c>
       <c r="P178" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q178" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="179" spans="14:17" x14ac:dyDescent="0.25">
@@ -8615,10 +8615,10 @@
         <v>0</v>
       </c>
       <c r="P179" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q179" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="180" spans="14:17" x14ac:dyDescent="0.25">
@@ -8629,10 +8629,10 @@
         <v>1</v>
       </c>
       <c r="P180" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q180" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="181" spans="14:17" x14ac:dyDescent="0.25">
@@ -8643,10 +8643,10 @@
         <v>2</v>
       </c>
       <c r="P181" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q181" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="182" spans="14:17" x14ac:dyDescent="0.25">
@@ -8657,10 +8657,10 @@
         <v>3</v>
       </c>
       <c r="P182" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q182" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="183" spans="14:17" x14ac:dyDescent="0.25">
@@ -8671,10 +8671,10 @@
         <v>4</v>
       </c>
       <c r="P183" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q183" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="184" spans="14:17" x14ac:dyDescent="0.25">
@@ -8685,10 +8685,10 @@
         <v>5</v>
       </c>
       <c r="P184" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q184" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="185" spans="14:17" x14ac:dyDescent="0.25">
@@ -8699,10 +8699,10 @@
         <v>6</v>
       </c>
       <c r="P185" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q185" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="186" spans="14:17" x14ac:dyDescent="0.25">
@@ -8713,10 +8713,10 @@
         <v>7</v>
       </c>
       <c r="P186" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q186" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="187" spans="14:17" x14ac:dyDescent="0.25">
@@ -8727,10 +8727,10 @@
         <v>8</v>
       </c>
       <c r="P187" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q187" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="188" spans="14:17" x14ac:dyDescent="0.25">
@@ -8741,10 +8741,10 @@
         <v>9</v>
       </c>
       <c r="P188" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q188" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="189" spans="14:17" x14ac:dyDescent="0.25">
@@ -8755,10 +8755,10 @@
         <v>10</v>
       </c>
       <c r="P189" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q189" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="190" spans="14:17" x14ac:dyDescent="0.25">
@@ -8769,10 +8769,10 @@
         <v>0</v>
       </c>
       <c r="P190" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q190" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="191" spans="14:17" x14ac:dyDescent="0.25">
@@ -8783,10 +8783,10 @@
         <v>1</v>
       </c>
       <c r="P191" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q191" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="192" spans="14:17" x14ac:dyDescent="0.25">
@@ -8797,10 +8797,10 @@
         <v>2</v>
       </c>
       <c r="P192" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q192" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="193" spans="14:17" x14ac:dyDescent="0.25">
@@ -8811,10 +8811,10 @@
         <v>3</v>
       </c>
       <c r="P193" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q193" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="194" spans="14:17" x14ac:dyDescent="0.25">
@@ -8825,10 +8825,10 @@
         <v>4</v>
       </c>
       <c r="P194" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q194" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="195" spans="14:17" x14ac:dyDescent="0.25">
@@ -8839,10 +8839,10 @@
         <v>5</v>
       </c>
       <c r="P195" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q195" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="196" spans="14:17" x14ac:dyDescent="0.25">
@@ -8853,10 +8853,10 @@
         <v>6</v>
       </c>
       <c r="P196" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q196" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="197" spans="14:17" x14ac:dyDescent="0.25">
@@ -8867,10 +8867,10 @@
         <v>7</v>
       </c>
       <c r="P197" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q197" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="198" spans="14:17" x14ac:dyDescent="0.25">
@@ -8881,10 +8881,10 @@
         <v>8</v>
       </c>
       <c r="P198" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q198" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="199" spans="14:17" x14ac:dyDescent="0.25">
@@ -8895,10 +8895,10 @@
         <v>9</v>
       </c>
       <c r="P199" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q199" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="200" spans="14:17" x14ac:dyDescent="0.25">
@@ -8909,10 +8909,10 @@
         <v>10</v>
       </c>
       <c r="P200" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q200" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="201" spans="14:17" x14ac:dyDescent="0.25">
@@ -8923,10 +8923,10 @@
         <v>0</v>
       </c>
       <c r="P201" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q201" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="202" spans="14:17" x14ac:dyDescent="0.25">
@@ -8937,10 +8937,10 @@
         <v>1</v>
       </c>
       <c r="P202" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q202" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="203" spans="14:17" x14ac:dyDescent="0.25">
@@ -8951,10 +8951,10 @@
         <v>2</v>
       </c>
       <c r="P203" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q203" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="204" spans="14:17" x14ac:dyDescent="0.25">
@@ -8965,10 +8965,10 @@
         <v>3</v>
       </c>
       <c r="P204" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q204" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="205" spans="14:17" x14ac:dyDescent="0.25">
@@ -8979,10 +8979,10 @@
         <v>4</v>
       </c>
       <c r="P205" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q205" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="206" spans="14:17" x14ac:dyDescent="0.25">
@@ -8993,10 +8993,10 @@
         <v>5</v>
       </c>
       <c r="P206" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q206" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="207" spans="14:17" x14ac:dyDescent="0.25">
@@ -9007,10 +9007,10 @@
         <v>6</v>
       </c>
       <c r="P207" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q207" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="208" spans="14:17" x14ac:dyDescent="0.25">
@@ -9021,10 +9021,10 @@
         <v>7</v>
       </c>
       <c r="P208" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q208" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="209" spans="14:17" x14ac:dyDescent="0.25">
@@ -9035,10 +9035,10 @@
         <v>8</v>
       </c>
       <c r="P209" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q209" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="210" spans="14:17" x14ac:dyDescent="0.25">
@@ -9049,10 +9049,10 @@
         <v>9</v>
       </c>
       <c r="P210" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q210" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="211" spans="14:17" x14ac:dyDescent="0.25">
@@ -9063,10 +9063,10 @@
         <v>10</v>
       </c>
       <c r="P211" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q211" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="212" spans="14:17" x14ac:dyDescent="0.25">
@@ -9077,10 +9077,10 @@
         <v>0</v>
       </c>
       <c r="P212" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q212" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="213" spans="14:17" x14ac:dyDescent="0.25">
@@ -9091,10 +9091,10 @@
         <v>1</v>
       </c>
       <c r="P213" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q213" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="214" spans="14:17" x14ac:dyDescent="0.25">
@@ -9105,10 +9105,10 @@
         <v>2</v>
       </c>
       <c r="P214" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q214" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="215" spans="14:17" x14ac:dyDescent="0.25">
@@ -9119,10 +9119,10 @@
         <v>3</v>
       </c>
       <c r="P215" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q215" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="216" spans="14:17" x14ac:dyDescent="0.25">
@@ -9133,10 +9133,10 @@
         <v>4</v>
       </c>
       <c r="P216" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q216" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="217" spans="14:17" x14ac:dyDescent="0.25">
@@ -9147,10 +9147,10 @@
         <v>5</v>
       </c>
       <c r="P217" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q217" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="218" spans="14:17" x14ac:dyDescent="0.25">
@@ -9161,10 +9161,10 @@
         <v>6</v>
       </c>
       <c r="P218" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q218" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="219" spans="14:17" x14ac:dyDescent="0.25">
@@ -9175,10 +9175,10 @@
         <v>7</v>
       </c>
       <c r="P219" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q219" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="220" spans="14:17" x14ac:dyDescent="0.25">
@@ -9189,10 +9189,10 @@
         <v>8</v>
       </c>
       <c r="P220" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q220" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="221" spans="14:17" x14ac:dyDescent="0.25">
@@ -9203,10 +9203,10 @@
         <v>9</v>
       </c>
       <c r="P221" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q221" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="222" spans="14:17" x14ac:dyDescent="0.25">
@@ -9217,10 +9217,10 @@
         <v>10</v>
       </c>
       <c r="P222" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q222" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="223" spans="14:17" x14ac:dyDescent="0.25">
@@ -9231,10 +9231,10 @@
         <v>0</v>
       </c>
       <c r="P223" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q223" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="224" spans="14:17" x14ac:dyDescent="0.25">
@@ -9245,10 +9245,10 @@
         <v>1</v>
       </c>
       <c r="P224" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q224" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="225" spans="14:17" x14ac:dyDescent="0.25">
@@ -9259,10 +9259,10 @@
         <v>2</v>
       </c>
       <c r="P225" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q225" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="226" spans="14:17" x14ac:dyDescent="0.25">
@@ -9273,10 +9273,10 @@
         <v>3</v>
       </c>
       <c r="P226" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q226" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="227" spans="14:17" x14ac:dyDescent="0.25">
@@ -9287,10 +9287,10 @@
         <v>4</v>
       </c>
       <c r="P227" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q227" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="228" spans="14:17" x14ac:dyDescent="0.25">
@@ -9301,10 +9301,10 @@
         <v>5</v>
       </c>
       <c r="P228" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q228" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="229" spans="14:17" x14ac:dyDescent="0.25">
@@ -9315,10 +9315,10 @@
         <v>6</v>
       </c>
       <c r="P229" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q229" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="230" spans="14:17" x14ac:dyDescent="0.25">
@@ -9329,10 +9329,10 @@
         <v>7</v>
       </c>
       <c r="P230" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q230" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="231" spans="14:17" x14ac:dyDescent="0.25">
@@ -9343,10 +9343,10 @@
         <v>8</v>
       </c>
       <c r="P231" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q231" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="232" spans="14:17" x14ac:dyDescent="0.25">
@@ -9357,10 +9357,10 @@
         <v>9</v>
       </c>
       <c r="P232" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q232" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="233" spans="14:17" x14ac:dyDescent="0.25">
@@ -9371,10 +9371,10 @@
         <v>10</v>
       </c>
       <c r="P233" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q233" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="234" spans="14:17" x14ac:dyDescent="0.25">
@@ -9385,10 +9385,10 @@
         <v>0</v>
       </c>
       <c r="P234" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q234" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="235" spans="14:17" x14ac:dyDescent="0.25">
@@ -9399,10 +9399,10 @@
         <v>1</v>
       </c>
       <c r="P235" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q235" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="236" spans="14:17" x14ac:dyDescent="0.25">
@@ -9413,10 +9413,10 @@
         <v>2</v>
       </c>
       <c r="P236" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q236" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="237" spans="14:17" x14ac:dyDescent="0.25">
@@ -9427,10 +9427,10 @@
         <v>3</v>
       </c>
       <c r="P237" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q237" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="238" spans="14:17" x14ac:dyDescent="0.25">
@@ -9441,10 +9441,10 @@
         <v>4</v>
       </c>
       <c r="P238" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q238" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="239" spans="14:17" x14ac:dyDescent="0.25">
@@ -9455,10 +9455,10 @@
         <v>5</v>
       </c>
       <c r="P239" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q239" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="240" spans="14:17" x14ac:dyDescent="0.25">
@@ -9469,10 +9469,10 @@
         <v>6</v>
       </c>
       <c r="P240" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q240" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="241" spans="14:17" x14ac:dyDescent="0.25">
@@ -9483,10 +9483,10 @@
         <v>7</v>
       </c>
       <c r="P241" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q241" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="242" spans="14:17" x14ac:dyDescent="0.25">
@@ -9497,10 +9497,10 @@
         <v>8</v>
       </c>
       <c r="P242" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q242" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="243" spans="14:17" x14ac:dyDescent="0.25">
@@ -9511,10 +9511,10 @@
         <v>9</v>
       </c>
       <c r="P243" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q243" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="244" spans="14:17" x14ac:dyDescent="0.25">
@@ -9525,10 +9525,10 @@
         <v>10</v>
       </c>
       <c r="P244" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q244" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="245" spans="14:17" x14ac:dyDescent="0.25">
@@ -9539,10 +9539,10 @@
         <v>0</v>
       </c>
       <c r="P245" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q245" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="246" spans="14:17" x14ac:dyDescent="0.25">
@@ -9553,10 +9553,10 @@
         <v>1</v>
       </c>
       <c r="P246" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q246" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="247" spans="14:17" x14ac:dyDescent="0.25">
@@ -9567,10 +9567,10 @@
         <v>2</v>
       </c>
       <c r="P247" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q247" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="248" spans="14:17" x14ac:dyDescent="0.25">
@@ -9581,10 +9581,10 @@
         <v>3</v>
       </c>
       <c r="P248" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q248" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="249" spans="14:17" x14ac:dyDescent="0.25">
@@ -9595,10 +9595,10 @@
         <v>4</v>
       </c>
       <c r="P249" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q249" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="250" spans="14:17" x14ac:dyDescent="0.25">
@@ -9609,10 +9609,10 @@
         <v>5</v>
       </c>
       <c r="P250" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q250" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="251" spans="14:17" x14ac:dyDescent="0.25">
@@ -9623,10 +9623,10 @@
         <v>6</v>
       </c>
       <c r="P251" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q251" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="252" spans="14:17" x14ac:dyDescent="0.25">
@@ -9637,10 +9637,10 @@
         <v>7</v>
       </c>
       <c r="P252" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q252" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="253" spans="14:17" x14ac:dyDescent="0.25">
@@ -9651,10 +9651,10 @@
         <v>8</v>
       </c>
       <c r="P253" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q253" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="254" spans="14:17" x14ac:dyDescent="0.25">
@@ -9665,10 +9665,10 @@
         <v>9</v>
       </c>
       <c r="P254" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q254" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="255" spans="14:17" x14ac:dyDescent="0.25">
@@ -9679,10 +9679,10 @@
         <v>10</v>
       </c>
       <c r="P255" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q255" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="256" spans="14:17" x14ac:dyDescent="0.25">
@@ -9693,10 +9693,10 @@
         <v>0</v>
       </c>
       <c r="P256" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q256" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="257" spans="14:17" x14ac:dyDescent="0.25">
@@ -9707,10 +9707,10 @@
         <v>1</v>
       </c>
       <c r="P257" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q257" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="258" spans="14:17" x14ac:dyDescent="0.25">
@@ -9721,10 +9721,10 @@
         <v>2</v>
       </c>
       <c r="P258" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q258" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="259" spans="14:17" x14ac:dyDescent="0.25">
@@ -9735,10 +9735,10 @@
         <v>3</v>
       </c>
       <c r="P259" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q259" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="260" spans="14:17" x14ac:dyDescent="0.25">
@@ -9749,10 +9749,10 @@
         <v>4</v>
       </c>
       <c r="P260" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q260" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="261" spans="14:17" x14ac:dyDescent="0.25">
@@ -9763,10 +9763,10 @@
         <v>5</v>
       </c>
       <c r="P261" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q261" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="262" spans="14:17" x14ac:dyDescent="0.25">
@@ -9777,10 +9777,10 @@
         <v>6</v>
       </c>
       <c r="P262" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q262" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="263" spans="14:17" x14ac:dyDescent="0.25">
@@ -9791,10 +9791,10 @@
         <v>7</v>
       </c>
       <c r="P263" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q263" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="264" spans="14:17" x14ac:dyDescent="0.25">
@@ -9805,10 +9805,10 @@
         <v>8</v>
       </c>
       <c r="P264" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q264" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="265" spans="14:17" x14ac:dyDescent="0.25">
@@ -9819,10 +9819,10 @@
         <v>9</v>
       </c>
       <c r="P265" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q265" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="266" spans="14:17" x14ac:dyDescent="0.25">
@@ -9833,10 +9833,10 @@
         <v>10</v>
       </c>
       <c r="P266" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q266" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="267" spans="14:17" x14ac:dyDescent="0.25">
@@ -9847,10 +9847,10 @@
         <v>0</v>
       </c>
       <c r="P267" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q267" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="268" spans="14:17" x14ac:dyDescent="0.25">
@@ -9861,10 +9861,10 @@
         <v>1</v>
       </c>
       <c r="P268" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q268" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="269" spans="14:17" x14ac:dyDescent="0.25">
@@ -9875,10 +9875,10 @@
         <v>2</v>
       </c>
       <c r="P269" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q269" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="270" spans="14:17" x14ac:dyDescent="0.25">
@@ -9889,10 +9889,10 @@
         <v>3</v>
       </c>
       <c r="P270" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q270" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="271" spans="14:17" x14ac:dyDescent="0.25">
@@ -9903,10 +9903,10 @@
         <v>4</v>
       </c>
       <c r="P271" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q271" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="272" spans="14:17" x14ac:dyDescent="0.25">
@@ -9917,10 +9917,10 @@
         <v>5</v>
       </c>
       <c r="P272" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q272" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="273" spans="14:17" x14ac:dyDescent="0.25">
@@ -9931,10 +9931,10 @@
         <v>6</v>
       </c>
       <c r="P273" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q273" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="274" spans="14:17" x14ac:dyDescent="0.25">
@@ -9945,10 +9945,10 @@
         <v>7</v>
       </c>
       <c r="P274" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q274" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="275" spans="14:17" x14ac:dyDescent="0.25">
@@ -9959,10 +9959,10 @@
         <v>8</v>
       </c>
       <c r="P275" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q275" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="276" spans="14:17" x14ac:dyDescent="0.25">
@@ -9973,10 +9973,10 @@
         <v>9</v>
       </c>
       <c r="P276" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q276" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="277" spans="14:17" x14ac:dyDescent="0.25">
@@ -9987,10 +9987,10 @@
         <v>10</v>
       </c>
       <c r="P277" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q277" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="278" spans="14:17" x14ac:dyDescent="0.25">
@@ -10001,10 +10001,10 @@
         <v>0</v>
       </c>
       <c r="P278" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q278" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="279" spans="14:17" x14ac:dyDescent="0.25">
@@ -10015,10 +10015,10 @@
         <v>1</v>
       </c>
       <c r="P279" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q279" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="280" spans="14:17" x14ac:dyDescent="0.25">
@@ -10029,10 +10029,10 @@
         <v>2</v>
       </c>
       <c r="P280" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q280" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="281" spans="14:17" x14ac:dyDescent="0.25">
@@ -10043,10 +10043,10 @@
         <v>3</v>
       </c>
       <c r="P281" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q281" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="282" spans="14:17" x14ac:dyDescent="0.25">
@@ -10057,10 +10057,10 @@
         <v>4</v>
       </c>
       <c r="P282" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q282" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="283" spans="14:17" x14ac:dyDescent="0.25">
@@ -10071,10 +10071,10 @@
         <v>5</v>
       </c>
       <c r="P283" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q283" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="284" spans="14:17" x14ac:dyDescent="0.25">
@@ -10085,10 +10085,10 @@
         <v>6</v>
       </c>
       <c r="P284" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q284" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="285" spans="14:17" x14ac:dyDescent="0.25">
@@ -10099,10 +10099,10 @@
         <v>7</v>
       </c>
       <c r="P285" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q285" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="286" spans="14:17" x14ac:dyDescent="0.25">
@@ -10113,10 +10113,10 @@
         <v>8</v>
       </c>
       <c r="P286" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q286" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="287" spans="14:17" x14ac:dyDescent="0.25">
@@ -10127,10 +10127,10 @@
         <v>9</v>
       </c>
       <c r="P287" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q287" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="288" spans="14:17" x14ac:dyDescent="0.25">
@@ -10141,10 +10141,10 @@
         <v>10</v>
       </c>
       <c r="P288" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q288" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="289" spans="14:17" x14ac:dyDescent="0.25">
@@ -10155,10 +10155,10 @@
         <v>0</v>
       </c>
       <c r="P289" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q289" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="290" spans="14:17" x14ac:dyDescent="0.25">
@@ -10169,10 +10169,10 @@
         <v>1</v>
       </c>
       <c r="P290" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q290" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="291" spans="14:17" x14ac:dyDescent="0.25">
@@ -10183,10 +10183,10 @@
         <v>2</v>
       </c>
       <c r="P291" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q291" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="292" spans="14:17" x14ac:dyDescent="0.25">
@@ -10197,10 +10197,10 @@
         <v>3</v>
       </c>
       <c r="P292" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q292" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="293" spans="14:17" x14ac:dyDescent="0.25">
@@ -10211,10 +10211,10 @@
         <v>4</v>
       </c>
       <c r="P293" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q293" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="294" spans="14:17" x14ac:dyDescent="0.25">
@@ -10225,10 +10225,10 @@
         <v>5</v>
       </c>
       <c r="P294" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q294" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="295" spans="14:17" x14ac:dyDescent="0.25">
@@ -10239,10 +10239,10 @@
         <v>6</v>
       </c>
       <c r="P295" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q295" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="296" spans="14:17" x14ac:dyDescent="0.25">
@@ -10253,10 +10253,10 @@
         <v>7</v>
       </c>
       <c r="P296" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q296" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="297" spans="14:17" x14ac:dyDescent="0.25">
@@ -10267,10 +10267,10 @@
         <v>8</v>
       </c>
       <c r="P297" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q297" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="298" spans="14:17" x14ac:dyDescent="0.25">
@@ -10281,10 +10281,10 @@
         <v>9</v>
       </c>
       <c r="P298" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q298" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="299" spans="14:17" x14ac:dyDescent="0.25">
@@ -10295,10 +10295,10 @@
         <v>10</v>
       </c>
       <c r="P299" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q299" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="300" spans="14:17" x14ac:dyDescent="0.25">
@@ -10309,10 +10309,10 @@
         <v>0</v>
       </c>
       <c r="P300" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q300" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="301" spans="14:17" x14ac:dyDescent="0.25">
@@ -10323,10 +10323,10 @@
         <v>1</v>
       </c>
       <c r="P301" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q301" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="302" spans="14:17" x14ac:dyDescent="0.25">
@@ -10337,10 +10337,10 @@
         <v>2</v>
       </c>
       <c r="P302" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q302" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="303" spans="14:17" x14ac:dyDescent="0.25">
@@ -10351,10 +10351,10 @@
         <v>3</v>
       </c>
       <c r="P303" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q303" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="304" spans="14:17" x14ac:dyDescent="0.25">
@@ -10365,10 +10365,10 @@
         <v>4</v>
       </c>
       <c r="P304" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q304" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="305" spans="14:17" x14ac:dyDescent="0.25">
@@ -10379,10 +10379,10 @@
         <v>5</v>
       </c>
       <c r="P305" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q305" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="306" spans="14:17" x14ac:dyDescent="0.25">
@@ -10393,10 +10393,10 @@
         <v>6</v>
       </c>
       <c r="P306" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q306" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="307" spans="14:17" x14ac:dyDescent="0.25">
@@ -10407,10 +10407,10 @@
         <v>7</v>
       </c>
       <c r="P307" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q307" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="308" spans="14:17" x14ac:dyDescent="0.25">
@@ -10421,10 +10421,10 @@
         <v>8</v>
       </c>
       <c r="P308" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q308" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="309" spans="14:17" x14ac:dyDescent="0.25">
@@ -10435,10 +10435,10 @@
         <v>9</v>
       </c>
       <c r="P309" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q309" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="310" spans="14:17" x14ac:dyDescent="0.25">
@@ -10449,10 +10449,10 @@
         <v>10</v>
       </c>
       <c r="P310" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q310" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="311" spans="14:17" x14ac:dyDescent="0.25">
@@ -10463,10 +10463,10 @@
         <v>0</v>
       </c>
       <c r="P311" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q311" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="312" spans="14:17" x14ac:dyDescent="0.25">
@@ -10477,10 +10477,10 @@
         <v>1</v>
       </c>
       <c r="P312" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q312" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="313" spans="14:17" x14ac:dyDescent="0.25">
@@ -10491,10 +10491,10 @@
         <v>2</v>
       </c>
       <c r="P313" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q313" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="314" spans="14:17" x14ac:dyDescent="0.25">
@@ -10505,10 +10505,10 @@
         <v>3</v>
       </c>
       <c r="P314" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q314" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="315" spans="14:17" x14ac:dyDescent="0.25">
@@ -10519,10 +10519,10 @@
         <v>4</v>
       </c>
       <c r="P315" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q315" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="316" spans="14:17" x14ac:dyDescent="0.25">
@@ -10533,10 +10533,10 @@
         <v>5</v>
       </c>
       <c r="P316" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q316" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="317" spans="14:17" x14ac:dyDescent="0.25">
@@ -10547,10 +10547,10 @@
         <v>6</v>
       </c>
       <c r="P317" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q317" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="318" spans="14:17" x14ac:dyDescent="0.25">
@@ -10561,10 +10561,10 @@
         <v>7</v>
       </c>
       <c r="P318" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q318" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="319" spans="14:17" x14ac:dyDescent="0.25">
@@ -10575,10 +10575,10 @@
         <v>8</v>
       </c>
       <c r="P319" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q319" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="320" spans="14:17" x14ac:dyDescent="0.25">
@@ -10589,10 +10589,10 @@
         <v>9</v>
       </c>
       <c r="P320" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q320" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="321" spans="14:17" x14ac:dyDescent="0.25">
@@ -10603,10 +10603,10 @@
         <v>10</v>
       </c>
       <c r="P321" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q321" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="322" spans="14:17" x14ac:dyDescent="0.25">
@@ -10617,10 +10617,10 @@
         <v>0</v>
       </c>
       <c r="P322" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q322" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="323" spans="14:17" x14ac:dyDescent="0.25">
@@ -10631,10 +10631,10 @@
         <v>1</v>
       </c>
       <c r="P323" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q323" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="324" spans="14:17" x14ac:dyDescent="0.25">
@@ -10645,10 +10645,10 @@
         <v>2</v>
       </c>
       <c r="P324" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q324" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="325" spans="14:17" x14ac:dyDescent="0.25">
@@ -10659,10 +10659,10 @@
         <v>3</v>
       </c>
       <c r="P325" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q325" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="326" spans="14:17" x14ac:dyDescent="0.25">
@@ -10673,10 +10673,10 @@
         <v>4</v>
       </c>
       <c r="P326" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q326" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="327" spans="14:17" x14ac:dyDescent="0.25">
@@ -10687,10 +10687,10 @@
         <v>5</v>
       </c>
       <c r="P327" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q327" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="328" spans="14:17" x14ac:dyDescent="0.25">
@@ -10701,10 +10701,10 @@
         <v>6</v>
       </c>
       <c r="P328" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q328" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="329" spans="14:17" x14ac:dyDescent="0.25">
@@ -10715,10 +10715,10 @@
         <v>7</v>
       </c>
       <c r="P329" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q329" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="330" spans="14:17" x14ac:dyDescent="0.25">
@@ -10729,10 +10729,10 @@
         <v>8</v>
       </c>
       <c r="P330" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q330" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="331" spans="14:17" x14ac:dyDescent="0.25">
@@ -10743,10 +10743,10 @@
         <v>9</v>
       </c>
       <c r="P331" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q331" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="332" spans="14:17" x14ac:dyDescent="0.25">
@@ -10757,10 +10757,10 @@
         <v>10</v>
       </c>
       <c r="P332" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q332" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="333" spans="14:17" x14ac:dyDescent="0.25">
@@ -10771,10 +10771,10 @@
         <v>0</v>
       </c>
       <c r="P333" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q333" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="334" spans="14:17" x14ac:dyDescent="0.25">
@@ -10785,10 +10785,10 @@
         <v>1</v>
       </c>
       <c r="P334" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q334" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="335" spans="14:17" x14ac:dyDescent="0.25">
@@ -10799,10 +10799,10 @@
         <v>2</v>
       </c>
       <c r="P335" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q335" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="336" spans="14:17" x14ac:dyDescent="0.25">
@@ -10813,10 +10813,10 @@
         <v>3</v>
       </c>
       <c r="P336" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q336" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="337" spans="14:17" x14ac:dyDescent="0.25">
@@ -10827,10 +10827,10 @@
         <v>4</v>
       </c>
       <c r="P337" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q337" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="338" spans="14:17" x14ac:dyDescent="0.25">
@@ -10841,10 +10841,10 @@
         <v>5</v>
       </c>
       <c r="P338" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q338" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="339" spans="14:17" x14ac:dyDescent="0.25">
@@ -10855,10 +10855,10 @@
         <v>6</v>
       </c>
       <c r="P339" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q339" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="340" spans="14:17" x14ac:dyDescent="0.25">
@@ -10869,10 +10869,10 @@
         <v>7</v>
       </c>
       <c r="P340" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q340" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="341" spans="14:17" x14ac:dyDescent="0.25">
@@ -10883,10 +10883,10 @@
         <v>8</v>
       </c>
       <c r="P341" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q341" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="342" spans="14:17" x14ac:dyDescent="0.25">
@@ -10897,10 +10897,10 @@
         <v>9</v>
       </c>
       <c r="P342" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q342" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="343" spans="14:17" x14ac:dyDescent="0.25">
@@ -10911,10 +10911,10 @@
         <v>10</v>
       </c>
       <c r="P343" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q343" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="344" spans="14:17" x14ac:dyDescent="0.25">
@@ -10925,10 +10925,10 @@
         <v>0</v>
       </c>
       <c r="P344" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q344" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="345" spans="14:17" x14ac:dyDescent="0.25">
@@ -10939,10 +10939,10 @@
         <v>1</v>
       </c>
       <c r="P345" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q345" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="346" spans="14:17" x14ac:dyDescent="0.25">
@@ -10953,10 +10953,10 @@
         <v>2</v>
       </c>
       <c r="P346" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q346" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="347" spans="14:17" x14ac:dyDescent="0.25">
@@ -10967,10 +10967,10 @@
         <v>3</v>
       </c>
       <c r="P347" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q347" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="348" spans="14:17" x14ac:dyDescent="0.25">
@@ -10981,10 +10981,10 @@
         <v>4</v>
       </c>
       <c r="P348" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q348" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="349" spans="14:17" x14ac:dyDescent="0.25">
@@ -10995,10 +10995,10 @@
         <v>5</v>
       </c>
       <c r="P349" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q349" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="350" spans="14:17" x14ac:dyDescent="0.25">
@@ -11009,10 +11009,10 @@
         <v>6</v>
       </c>
       <c r="P350" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q350" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="351" spans="14:17" x14ac:dyDescent="0.25">
@@ -11023,10 +11023,10 @@
         <v>7</v>
       </c>
       <c r="P351" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q351" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="352" spans="14:17" x14ac:dyDescent="0.25">
@@ -11037,10 +11037,10 @@
         <v>8</v>
       </c>
       <c r="P352" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q352" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="353" spans="14:17" x14ac:dyDescent="0.25">
@@ -11051,10 +11051,10 @@
         <v>9</v>
       </c>
       <c r="P353" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q353" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="354" spans="14:17" x14ac:dyDescent="0.25">
@@ -11065,10 +11065,10 @@
         <v>10</v>
       </c>
       <c r="P354" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q354" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="355" spans="14:17" x14ac:dyDescent="0.25">
@@ -11079,10 +11079,10 @@
         <v>0</v>
       </c>
       <c r="P355" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q355" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="356" spans="14:17" x14ac:dyDescent="0.25">
@@ -11093,10 +11093,10 @@
         <v>1</v>
       </c>
       <c r="P356" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q356" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="357" spans="14:17" x14ac:dyDescent="0.25">
@@ -11107,10 +11107,10 @@
         <v>2</v>
       </c>
       <c r="P357" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q357" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="358" spans="14:17" x14ac:dyDescent="0.25">
@@ -11121,10 +11121,10 @@
         <v>3</v>
       </c>
       <c r="P358" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q358" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="359" spans="14:17" x14ac:dyDescent="0.25">
@@ -11135,10 +11135,10 @@
         <v>4</v>
       </c>
       <c r="P359" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q359" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="360" spans="14:17" x14ac:dyDescent="0.25">
@@ -11149,10 +11149,10 @@
         <v>5</v>
       </c>
       <c r="P360" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q360" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="361" spans="14:17" x14ac:dyDescent="0.25">
@@ -11163,10 +11163,10 @@
         <v>6</v>
       </c>
       <c r="P361" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q361" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="362" spans="14:17" x14ac:dyDescent="0.25">
@@ -11177,10 +11177,10 @@
         <v>7</v>
       </c>
       <c r="P362" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q362" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="363" spans="14:17" x14ac:dyDescent="0.25">
@@ -11191,10 +11191,10 @@
         <v>8</v>
       </c>
       <c r="P363" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q363" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="364" spans="14:17" x14ac:dyDescent="0.25">
@@ -11205,10 +11205,10 @@
         <v>9</v>
       </c>
       <c r="P364" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q364" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="365" spans="14:17" x14ac:dyDescent="0.25">
@@ -11219,10 +11219,10 @@
         <v>10</v>
       </c>
       <c r="P365" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q365" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="366" spans="14:17" x14ac:dyDescent="0.25">
@@ -11233,10 +11233,10 @@
         <v>0</v>
       </c>
       <c r="P366" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q366" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="367" spans="14:17" x14ac:dyDescent="0.25">
@@ -11247,10 +11247,10 @@
         <v>1</v>
       </c>
       <c r="P367" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q367" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="368" spans="14:17" x14ac:dyDescent="0.25">
@@ -11261,10 +11261,10 @@
         <v>2</v>
       </c>
       <c r="P368" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q368" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="369" spans="14:17" x14ac:dyDescent="0.25">
@@ -11275,10 +11275,10 @@
         <v>3</v>
       </c>
       <c r="P369" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q369" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="370" spans="14:17" x14ac:dyDescent="0.25">
@@ -11289,10 +11289,10 @@
         <v>4</v>
       </c>
       <c r="P370" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q370" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="371" spans="14:17" x14ac:dyDescent="0.25">
@@ -11303,10 +11303,10 @@
         <v>5</v>
       </c>
       <c r="P371" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q371" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="372" spans="14:17" x14ac:dyDescent="0.25">
@@ -11317,10 +11317,10 @@
         <v>6</v>
       </c>
       <c r="P372" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q372" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="373" spans="14:17" x14ac:dyDescent="0.25">
@@ -11331,10 +11331,10 @@
         <v>7</v>
       </c>
       <c r="P373" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q373" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="374" spans="14:17" x14ac:dyDescent="0.25">
@@ -11345,10 +11345,10 @@
         <v>8</v>
       </c>
       <c r="P374" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q374" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="375" spans="14:17" x14ac:dyDescent="0.25">
@@ -11359,10 +11359,10 @@
         <v>9</v>
       </c>
       <c r="P375" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q375" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="376" spans="14:17" x14ac:dyDescent="0.25">
@@ -11373,10 +11373,10 @@
         <v>10</v>
       </c>
       <c r="P376" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q376" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="377" spans="14:17" x14ac:dyDescent="0.25">
@@ -11387,10 +11387,10 @@
         <v>0</v>
       </c>
       <c r="P377" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q377" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="378" spans="14:17" x14ac:dyDescent="0.25">
@@ -11401,10 +11401,10 @@
         <v>1</v>
       </c>
       <c r="P378" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q378" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="379" spans="14:17" x14ac:dyDescent="0.25">
@@ -11415,10 +11415,10 @@
         <v>2</v>
       </c>
       <c r="P379" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q379" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="380" spans="14:17" x14ac:dyDescent="0.25">
@@ -11429,10 +11429,10 @@
         <v>3</v>
       </c>
       <c r="P380" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q380" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="381" spans="14:17" x14ac:dyDescent="0.25">
@@ -11443,10 +11443,10 @@
         <v>4</v>
       </c>
       <c r="P381" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q381" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="382" spans="14:17" x14ac:dyDescent="0.25">
@@ -11457,10 +11457,10 @@
         <v>5</v>
       </c>
       <c r="P382" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q382" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="383" spans="14:17" x14ac:dyDescent="0.25">
@@ -11471,10 +11471,10 @@
         <v>6</v>
       </c>
       <c r="P383" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q383" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="384" spans="14:17" x14ac:dyDescent="0.25">
@@ -11485,10 +11485,10 @@
         <v>7</v>
       </c>
       <c r="P384" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q384" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="385" spans="14:17" x14ac:dyDescent="0.25">
@@ -11499,10 +11499,10 @@
         <v>8</v>
       </c>
       <c r="P385" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q385" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="386" spans="14:17" x14ac:dyDescent="0.25">
@@ -11513,10 +11513,10 @@
         <v>9</v>
       </c>
       <c r="P386" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q386" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="387" spans="14:17" x14ac:dyDescent="0.25">
@@ -11527,10 +11527,10 @@
         <v>10</v>
       </c>
       <c r="P387" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q387" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="388" spans="14:17" x14ac:dyDescent="0.25">
@@ -11541,10 +11541,10 @@
         <v>0</v>
       </c>
       <c r="P388" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q388" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="389" spans="14:17" x14ac:dyDescent="0.25">
@@ -11555,10 +11555,10 @@
         <v>1</v>
       </c>
       <c r="P389" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q389" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="390" spans="14:17" x14ac:dyDescent="0.25">
@@ -11569,10 +11569,10 @@
         <v>2</v>
       </c>
       <c r="P390" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q390" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="391" spans="14:17" x14ac:dyDescent="0.25">
@@ -11583,10 +11583,10 @@
         <v>3</v>
       </c>
       <c r="P391" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q391" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="392" spans="14:17" x14ac:dyDescent="0.25">
@@ -11597,10 +11597,10 @@
         <v>4</v>
       </c>
       <c r="P392" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q392" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="393" spans="14:17" x14ac:dyDescent="0.25">
@@ -11611,10 +11611,10 @@
         <v>5</v>
       </c>
       <c r="P393" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q393" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="394" spans="14:17" x14ac:dyDescent="0.25">
@@ -11625,10 +11625,10 @@
         <v>6</v>
       </c>
       <c r="P394" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q394" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="395" spans="14:17" x14ac:dyDescent="0.25">
@@ -11639,10 +11639,10 @@
         <v>7</v>
       </c>
       <c r="P395" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q395" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="396" spans="14:17" x14ac:dyDescent="0.25">
@@ -11653,10 +11653,10 @@
         <v>8</v>
       </c>
       <c r="P396" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q396" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="397" spans="14:17" x14ac:dyDescent="0.25">
@@ -11667,10 +11667,10 @@
         <v>9</v>
       </c>
       <c r="P397" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q397" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="398" spans="14:17" x14ac:dyDescent="0.25">
@@ -11681,10 +11681,10 @@
         <v>10</v>
       </c>
       <c r="P398" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q398" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="399" spans="14:17" x14ac:dyDescent="0.25">
@@ -11695,10 +11695,10 @@
         <v>0</v>
       </c>
       <c r="P399" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q399" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="400" spans="14:17" x14ac:dyDescent="0.25">
@@ -11709,10 +11709,10 @@
         <v>1</v>
       </c>
       <c r="P400" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q400" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="401" spans="14:17" x14ac:dyDescent="0.25">
@@ -11723,10 +11723,10 @@
         <v>2</v>
       </c>
       <c r="P401" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q401" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="402" spans="14:17" x14ac:dyDescent="0.25">
@@ -11737,10 +11737,10 @@
         <v>3</v>
       </c>
       <c r="P402" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q402" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="403" spans="14:17" x14ac:dyDescent="0.25">
@@ -11751,10 +11751,10 @@
         <v>4</v>
       </c>
       <c r="P403" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q403" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="404" spans="14:17" x14ac:dyDescent="0.25">
@@ -11765,10 +11765,10 @@
         <v>5</v>
       </c>
       <c r="P404" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q404" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="405" spans="14:17" x14ac:dyDescent="0.25">
@@ -11779,10 +11779,10 @@
         <v>6</v>
       </c>
       <c r="P405" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q405" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="406" spans="14:17" x14ac:dyDescent="0.25">
@@ -11793,10 +11793,10 @@
         <v>7</v>
       </c>
       <c r="P406" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q406" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="407" spans="14:17" x14ac:dyDescent="0.25">
@@ -11807,10 +11807,10 @@
         <v>8</v>
       </c>
       <c r="P407" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q407" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="408" spans="14:17" x14ac:dyDescent="0.25">
@@ -11821,10 +11821,10 @@
         <v>9</v>
       </c>
       <c r="P408" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q408" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="409" spans="14:17" x14ac:dyDescent="0.25">
@@ -11835,10 +11835,10 @@
         <v>10</v>
       </c>
       <c r="P409" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q409" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="410" spans="14:17" x14ac:dyDescent="0.25">
@@ -11849,10 +11849,10 @@
         <v>0</v>
       </c>
       <c r="P410" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q410" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="411" spans="14:17" x14ac:dyDescent="0.25">
@@ -11863,10 +11863,10 @@
         <v>1</v>
       </c>
       <c r="P411" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q411" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="412" spans="14:17" x14ac:dyDescent="0.25">
@@ -11877,10 +11877,10 @@
         <v>2</v>
       </c>
       <c r="P412" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q412" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="413" spans="14:17" x14ac:dyDescent="0.25">
@@ -11891,10 +11891,10 @@
         <v>3</v>
       </c>
       <c r="P413" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q413" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="414" spans="14:17" x14ac:dyDescent="0.25">
@@ -11905,10 +11905,10 @@
         <v>4</v>
       </c>
       <c r="P414" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q414" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="415" spans="14:17" x14ac:dyDescent="0.25">
@@ -11919,10 +11919,10 @@
         <v>5</v>
       </c>
       <c r="P415" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q415" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="416" spans="14:17" x14ac:dyDescent="0.25">
@@ -11933,10 +11933,10 @@
         <v>6</v>
       </c>
       <c r="P416" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q416" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="417" spans="14:17" x14ac:dyDescent="0.25">
@@ -11947,10 +11947,10 @@
         <v>7</v>
       </c>
       <c r="P417" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q417" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="418" spans="14:17" x14ac:dyDescent="0.25">
@@ -11961,10 +11961,10 @@
         <v>8</v>
       </c>
       <c r="P418" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q418" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="419" spans="14:17" x14ac:dyDescent="0.25">
@@ -11975,10 +11975,10 @@
         <v>9</v>
       </c>
       <c r="P419" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q419" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="420" spans="14:17" x14ac:dyDescent="0.25">
@@ -11989,10 +11989,10 @@
         <v>10</v>
       </c>
       <c r="P420" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q420" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="421" spans="14:17" x14ac:dyDescent="0.25">
@@ -12003,10 +12003,10 @@
         <v>0</v>
       </c>
       <c r="P421" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q421" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="422" spans="14:17" x14ac:dyDescent="0.25">
@@ -12017,10 +12017,10 @@
         <v>1</v>
       </c>
       <c r="P422" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q422" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="423" spans="14:17" x14ac:dyDescent="0.25">
@@ -12031,10 +12031,10 @@
         <v>2</v>
       </c>
       <c r="P423" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q423" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="424" spans="14:17" x14ac:dyDescent="0.25">
@@ -12045,10 +12045,10 @@
         <v>3</v>
       </c>
       <c r="P424" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q424" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="425" spans="14:17" x14ac:dyDescent="0.25">
@@ -12059,10 +12059,10 @@
         <v>4</v>
       </c>
       <c r="P425" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q425" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="426" spans="14:17" x14ac:dyDescent="0.25">
@@ -12073,10 +12073,10 @@
         <v>5</v>
       </c>
       <c r="P426" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q426" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="427" spans="14:17" x14ac:dyDescent="0.25">
@@ -12087,10 +12087,10 @@
         <v>6</v>
       </c>
       <c r="P427" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q427" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="428" spans="14:17" x14ac:dyDescent="0.25">
@@ -12101,10 +12101,10 @@
         <v>7</v>
       </c>
       <c r="P428" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q428" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="429" spans="14:17" x14ac:dyDescent="0.25">
@@ -12115,10 +12115,10 @@
         <v>8</v>
       </c>
       <c r="P429" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q429" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="430" spans="14:17" x14ac:dyDescent="0.25">
@@ -12129,10 +12129,10 @@
         <v>9</v>
       </c>
       <c r="P430" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q430" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="431" spans="14:17" x14ac:dyDescent="0.25">
@@ -12143,10 +12143,10 @@
         <v>10</v>
       </c>
       <c r="P431" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q431" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="432" spans="14:17" x14ac:dyDescent="0.25">
@@ -12157,10 +12157,10 @@
         <v>0</v>
       </c>
       <c r="P432" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q432" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="433" spans="14:17" x14ac:dyDescent="0.25">
@@ -12171,10 +12171,10 @@
         <v>1</v>
       </c>
       <c r="P433" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q433" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="434" spans="14:17" x14ac:dyDescent="0.25">
@@ -12185,10 +12185,10 @@
         <v>2</v>
       </c>
       <c r="P434" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q434" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="435" spans="14:17" x14ac:dyDescent="0.25">
@@ -12199,10 +12199,10 @@
         <v>3</v>
       </c>
       <c r="P435" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q435" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="436" spans="14:17" x14ac:dyDescent="0.25">
@@ -12213,10 +12213,10 @@
         <v>4</v>
       </c>
       <c r="P436" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q436" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="437" spans="14:17" x14ac:dyDescent="0.25">
@@ -12227,10 +12227,10 @@
         <v>5</v>
       </c>
       <c r="P437" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q437" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="438" spans="14:17" x14ac:dyDescent="0.25">
@@ -12241,10 +12241,10 @@
         <v>6</v>
       </c>
       <c r="P438" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q438" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="439" spans="14:17" x14ac:dyDescent="0.25">
@@ -12255,10 +12255,10 @@
         <v>7</v>
       </c>
       <c r="P439" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q439" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="440" spans="14:17" x14ac:dyDescent="0.25">
@@ -12269,10 +12269,10 @@
         <v>8</v>
       </c>
       <c r="P440" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q440" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="441" spans="14:17" x14ac:dyDescent="0.25">
@@ -12283,10 +12283,10 @@
         <v>9</v>
       </c>
       <c r="P441" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q441" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="442" spans="14:17" x14ac:dyDescent="0.25">
@@ -12297,10 +12297,10 @@
         <v>10</v>
       </c>
       <c r="P442" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q442" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/New-Implementation/Data/simple-data.xlsx
+++ b/New-Implementation/Data/simple-data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\Projects\UOttawa-Dynamic-Knapsack-Problem-Python\New-Implementation\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D69A3D8-3314-41D3-B3AC-769CB45771D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8988346F-19EC-440E-A1E9-3367961BF897}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5070" yWindow="5070" windowWidth="28800" windowHeight="15435" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" firstSheet="5" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Indices Data" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1277" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1443" uniqueCount="44">
   <si>
     <t>Time Horizon (t)</t>
   </si>
@@ -173,9 +173,6 @@
   </si>
   <si>
     <t>C2</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
   </si>
   <si>
     <t>Cost of Violating resources (cv)</t>
@@ -777,8 +774,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1197,7 +1194,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1301,7 +1298,7 @@
   <dimension ref="A1:H75"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1912,7 +1909,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1934,7 +1931,7 @@
         <v>24</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>25</v>
@@ -1968,8 +1965,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:AMJ222"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M41" sqref="M41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1993,7 +1990,7 @@
     <col min="20" max="1024" width="8.5703125" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="26" t="s">
         <v>26</v>
       </c>
@@ -2014,7 +2011,7 @@
       <c r="L1" s="26"/>
       <c r="M1" s="26"/>
     </row>
-    <row r="2" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:29" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>29</v>
       </c>
@@ -2055,7 +2052,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
         <v>6</v>
       </c>
@@ -2075,7 +2072,7 @@
         <v>9</v>
       </c>
       <c r="G3" s="19">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H3" s="16">
         <v>1</v>
@@ -2093,10 +2090,11 @@
         <v>9</v>
       </c>
       <c r="M3" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+        <f>G3*0.5</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A4" s="16"/>
       <c r="B4" s="20"/>
       <c r="C4" s="18">
@@ -2112,7 +2110,8 @@
         <v>9</v>
       </c>
       <c r="G4" s="19">
-        <v>8</v>
+        <f>G3*0.5</f>
+        <v>5</v>
       </c>
       <c r="H4" s="16">
         <v>1</v>
@@ -2130,10 +2129,11 @@
         <v>9</v>
       </c>
       <c r="M4" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+        <f>M3*0.5</f>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A5" s="22"/>
       <c r="B5" s="22"/>
       <c r="C5" s="18">
@@ -2149,7 +2149,8 @@
         <v>9</v>
       </c>
       <c r="G5" s="19">
-        <v>8</v>
+        <f>G4*0.5</f>
+        <v>2.5</v>
       </c>
       <c r="H5" s="16">
         <v>1</v>
@@ -2167,10 +2168,20 @@
         <v>9</v>
       </c>
       <c r="M5" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+        <f>M4*0.5</f>
+        <v>1.25</v>
+      </c>
+      <c r="Q5" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="S5" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="X5" s="11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A6" s="22"/>
       <c r="B6" s="22"/>
       <c r="C6" s="18">
@@ -2186,7 +2197,8 @@
         <v>9</v>
       </c>
       <c r="G6" s="19">
-        <v>7</v>
+        <f>G5*0.5</f>
+        <v>1.25</v>
       </c>
       <c r="H6" s="16">
         <v>1</v>
@@ -2204,10 +2216,50 @@
         <v>9</v>
       </c>
       <c r="M6" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+        <f>M5*0.5</f>
+        <v>0.625</v>
+      </c>
+      <c r="Q6" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="R6" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="S6" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="T6" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="U6" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="V6" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="W6" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="X6" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y6" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z6" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA6" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB6" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC6" s="11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A7" s="22"/>
       <c r="B7" s="22"/>
       <c r="C7" s="18">
@@ -2223,7 +2275,8 @@
         <v>9</v>
       </c>
       <c r="G7" s="19">
-        <v>7</v>
+        <f>G6*0.5</f>
+        <v>0.625</v>
       </c>
       <c r="H7" s="16">
         <v>1</v>
@@ -2241,10 +2294,50 @@
         <v>9</v>
       </c>
       <c r="M7" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+        <f>M6*0.5</f>
+        <v>0.3125</v>
+      </c>
+      <c r="Q7" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="R7" s="11">
+        <v>0</v>
+      </c>
+      <c r="S7" s="11">
+        <v>0</v>
+      </c>
+      <c r="T7" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="U7" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="V7" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="W7" s="11">
+        <v>9</v>
+      </c>
+      <c r="X7" s="11">
+        <v>1</v>
+      </c>
+      <c r="Y7" s="11">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA7" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB7" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC7" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A8" s="22"/>
       <c r="B8" s="22"/>
       <c r="C8" s="18">
@@ -2278,10 +2371,44 @@
         <v>9</v>
       </c>
       <c r="M8" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+        <f>M3*0.5</f>
+        <v>2.5</v>
+      </c>
+      <c r="S8" s="11">
+        <v>1</v>
+      </c>
+      <c r="T8" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="U8" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="V8" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="W8" s="11">
+        <v>5</v>
+      </c>
+      <c r="X8" s="11">
+        <v>1</v>
+      </c>
+      <c r="Y8" s="11">
+        <v>1</v>
+      </c>
+      <c r="Z8" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA8" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB8" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC8" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A9" s="22"/>
       <c r="B9" s="22"/>
       <c r="C9" s="18">
@@ -2315,10 +2442,44 @@
         <v>9</v>
       </c>
       <c r="M9" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+        <f>M8*0.5</f>
+        <v>1.25</v>
+      </c>
+      <c r="S9" s="11">
+        <v>2</v>
+      </c>
+      <c r="T9" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="U9" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="V9" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="W9" s="11">
+        <v>5</v>
+      </c>
+      <c r="X9" s="11">
+        <v>1</v>
+      </c>
+      <c r="Y9" s="11">
+        <v>2</v>
+      </c>
+      <c r="Z9" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA9" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB9" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC9" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A10" s="22"/>
       <c r="B10" s="22"/>
       <c r="C10" s="18">
@@ -2352,10 +2513,44 @@
         <v>9</v>
       </c>
       <c r="M10" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+        <f>M9*0.5</f>
+        <v>0.625</v>
+      </c>
+      <c r="S10" s="11">
+        <v>3</v>
+      </c>
+      <c r="T10" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="U10" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="V10" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="W10" s="11">
+        <v>3</v>
+      </c>
+      <c r="X10" s="11">
+        <v>1</v>
+      </c>
+      <c r="Y10" s="11">
+        <v>3</v>
+      </c>
+      <c r="Z10" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA10" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB10" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC10" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A11" s="22"/>
       <c r="B11" s="22"/>
       <c r="C11" s="18">
@@ -2371,7 +2566,8 @@
         <v>9</v>
       </c>
       <c r="G11" s="19">
-        <v>4</v>
+        <f>G6</f>
+        <v>1.25</v>
       </c>
       <c r="H11" s="16">
         <v>2</v>
@@ -2389,10 +2585,44 @@
         <v>9</v>
       </c>
       <c r="M11" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+        <f>M10*0.5</f>
+        <v>0.3125</v>
+      </c>
+      <c r="S11" s="11">
+        <v>4</v>
+      </c>
+      <c r="T11" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="U11" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="V11" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="W11" s="11">
+        <v>3</v>
+      </c>
+      <c r="X11" s="11">
+        <v>1</v>
+      </c>
+      <c r="Y11" s="11">
+        <v>4</v>
+      </c>
+      <c r="Z11" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA11" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB11" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC11" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A12" s="22"/>
       <c r="B12" s="22"/>
       <c r="C12" s="18">
@@ -2408,7 +2638,8 @@
         <v>9</v>
       </c>
       <c r="G12" s="19">
-        <v>4</v>
+        <f>G11*0.5</f>
+        <v>0.625</v>
       </c>
       <c r="H12" s="16">
         <v>2</v>
@@ -2426,10 +2657,44 @@
         <v>9</v>
       </c>
       <c r="M12" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+        <f>M11*0.5</f>
+        <v>0.15625</v>
+      </c>
+      <c r="S12" s="11">
+        <v>0</v>
+      </c>
+      <c r="T12" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="U12" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="V12" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="W12" s="11">
+        <v>0</v>
+      </c>
+      <c r="X12" s="11">
+        <v>2</v>
+      </c>
+      <c r="Y12" s="11">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA12" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB12" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC12" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A13" s="22"/>
       <c r="B13" s="22"/>
       <c r="C13" s="18"/>
@@ -2453,10 +2718,44 @@
         <v>9</v>
       </c>
       <c r="M13" s="21">
+        <f>M8*0.5</f>
+        <v>1.25</v>
+      </c>
+      <c r="S13" s="11">
+        <v>1</v>
+      </c>
+      <c r="T13" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="U13" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="V13" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="W13" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="X13" s="11">
+        <v>2</v>
+      </c>
+      <c r="Y13" s="11">
+        <v>1</v>
+      </c>
+      <c r="Z13" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA13" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB13" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC13" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A14" s="22"/>
       <c r="B14" s="22"/>
       <c r="C14" s="18"/>
@@ -2480,10 +2779,44 @@
         <v>9</v>
       </c>
       <c r="M14" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+        <f>M13*0.5</f>
+        <v>0.625</v>
+      </c>
+      <c r="S14" s="11">
+        <v>2</v>
+      </c>
+      <c r="T14" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="U14" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="V14" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="W14" s="11">
+        <v>0</v>
+      </c>
+      <c r="X14" s="11">
+        <v>2</v>
+      </c>
+      <c r="Y14" s="11">
+        <v>2</v>
+      </c>
+      <c r="Z14" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA14" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB14" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC14" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A15" s="22"/>
       <c r="B15" s="22"/>
       <c r="H15" s="16">
@@ -2502,10 +2835,44 @@
         <v>9</v>
       </c>
       <c r="M15" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+        <f>M14*0.5</f>
+        <v>0.3125</v>
+      </c>
+      <c r="S15" s="11">
+        <v>3</v>
+      </c>
+      <c r="T15" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="U15" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="V15" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="W15" s="11">
+        <v>2</v>
+      </c>
+      <c r="X15" s="11">
+        <v>2</v>
+      </c>
+      <c r="Y15" s="11">
+        <v>3</v>
+      </c>
+      <c r="Z15" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA15" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB15" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC15" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A16" s="22"/>
       <c r="B16" s="22"/>
       <c r="H16" s="16">
@@ -2524,6 +2891,40 @@
         <v>9</v>
       </c>
       <c r="M16" s="21">
+        <f>M15*0.5</f>
+        <v>0.15625</v>
+      </c>
+      <c r="S16" s="11">
+        <v>4</v>
+      </c>
+      <c r="T16" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="U16" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="V16" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="W16" s="11">
+        <v>2</v>
+      </c>
+      <c r="X16" s="11">
+        <v>2</v>
+      </c>
+      <c r="Y16" s="11">
+        <v>4</v>
+      </c>
+      <c r="Z16" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA16" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB16" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC16" s="11">
         <v>1</v>
       </c>
     </row>
@@ -2551,7 +2952,26 @@
         <v>9</v>
       </c>
       <c r="M17" s="21">
-        <v>1</v>
+        <f>M16*0.5</f>
+        <v>7.8125E-2</v>
+      </c>
+      <c r="X17" s="11">
+        <v>3</v>
+      </c>
+      <c r="Y17" s="11">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA17" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB17" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC17" s="11">
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:29" x14ac:dyDescent="0.25">
@@ -2578,7 +2998,26 @@
         <v>9</v>
       </c>
       <c r="M18" s="21">
-        <v>0</v>
+        <f>M13*0.5</f>
+        <v>0.625</v>
+      </c>
+      <c r="X18" s="11">
+        <v>3</v>
+      </c>
+      <c r="Y18" s="11">
+        <v>1</v>
+      </c>
+      <c r="Z18" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA18" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB18" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC18" s="11">
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:29" x14ac:dyDescent="0.25">
@@ -2605,6 +3044,25 @@
         <v>9</v>
       </c>
       <c r="M19" s="21">
+        <f>M18*0.5</f>
+        <v>0.3125</v>
+      </c>
+      <c r="X19" s="11">
+        <v>3</v>
+      </c>
+      <c r="Y19" s="11">
+        <v>2</v>
+      </c>
+      <c r="Z19" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA19" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB19" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC19" s="11">
         <v>1</v>
       </c>
     </row>
@@ -2632,6 +3090,25 @@
         <v>9</v>
       </c>
       <c r="M20" s="21">
+        <f>M19*0.5</f>
+        <v>0.15625</v>
+      </c>
+      <c r="X20" s="11">
+        <v>3</v>
+      </c>
+      <c r="Y20" s="11">
+        <v>3</v>
+      </c>
+      <c r="Z20" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA20" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB20" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC20" s="11">
         <v>1</v>
       </c>
     </row>
@@ -2659,6 +3136,25 @@
         <v>9</v>
       </c>
       <c r="M21" s="21">
+        <f>M20*0.5</f>
+        <v>7.8125E-2</v>
+      </c>
+      <c r="X21" s="11">
+        <v>3</v>
+      </c>
+      <c r="Y21" s="11">
+        <v>4</v>
+      </c>
+      <c r="Z21" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA21" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB21" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC21" s="11">
         <v>1</v>
       </c>
     </row>
@@ -2686,7 +3182,26 @@
         <v>9</v>
       </c>
       <c r="M22" s="21">
-        <v>1</v>
+        <f>M21*0.5</f>
+        <v>3.90625E-2</v>
+      </c>
+      <c r="X22" s="11">
+        <v>4</v>
+      </c>
+      <c r="Y22" s="11">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA22" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB22" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC22" s="11">
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:29" x14ac:dyDescent="0.25">
@@ -2713,8 +3228,23 @@
       <c r="M23" s="21">
         <v>0</v>
       </c>
-      <c r="AC23" s="11" t="s">
-        <v>43</v>
+      <c r="X23" s="11">
+        <v>4</v>
+      </c>
+      <c r="Y23" s="11">
+        <v>1</v>
+      </c>
+      <c r="Z23" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA23" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB23" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC23" s="11">
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:29" x14ac:dyDescent="0.25">
@@ -2741,6 +3271,24 @@
       <c r="M24" s="21">
         <v>0</v>
       </c>
+      <c r="X24" s="11">
+        <v>4</v>
+      </c>
+      <c r="Y24" s="11">
+        <v>2</v>
+      </c>
+      <c r="Z24" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA24" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB24" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC24" s="11">
+        <v>1</v>
+      </c>
     </row>
     <row r="25" spans="1:29" x14ac:dyDescent="0.25">
       <c r="H25" s="16">
@@ -2761,6 +3309,24 @@
       <c r="M25" s="21">
         <v>0</v>
       </c>
+      <c r="X25" s="11">
+        <v>4</v>
+      </c>
+      <c r="Y25" s="11">
+        <v>3</v>
+      </c>
+      <c r="Z25" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA25" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB25" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC25" s="11">
+        <v>1</v>
+      </c>
     </row>
     <row r="26" spans="1:29" x14ac:dyDescent="0.25">
       <c r="H26" s="16">
@@ -2779,7 +3345,26 @@
         <v>9</v>
       </c>
       <c r="M26" s="21">
-        <v>0</v>
+        <f>M6</f>
+        <v>0.625</v>
+      </c>
+      <c r="X26" s="11">
+        <v>4</v>
+      </c>
+      <c r="Y26" s="11">
+        <v>4</v>
+      </c>
+      <c r="Z26" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA26" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB26" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC26" s="11">
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:29" x14ac:dyDescent="0.25">
@@ -2799,6 +3384,25 @@
         <v>9</v>
       </c>
       <c r="M27" s="21">
+        <f>M7</f>
+        <v>0.3125</v>
+      </c>
+      <c r="X27" s="11">
+        <v>1</v>
+      </c>
+      <c r="Y27" s="11">
+        <v>0</v>
+      </c>
+      <c r="Z27" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA27" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB27" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC27" s="11">
         <v>0</v>
       </c>
     </row>
@@ -2821,6 +3425,24 @@
       <c r="M28" s="21">
         <v>0</v>
       </c>
+      <c r="X28" s="11">
+        <v>1</v>
+      </c>
+      <c r="Y28" s="11">
+        <v>1</v>
+      </c>
+      <c r="Z28" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA28" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB28" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC28" s="11">
+        <v>0</v>
+      </c>
     </row>
     <row r="29" spans="1:29" x14ac:dyDescent="0.25">
       <c r="H29" s="16">
@@ -2841,6 +3463,24 @@
       <c r="M29" s="21">
         <v>0</v>
       </c>
+      <c r="X29" s="11">
+        <v>1</v>
+      </c>
+      <c r="Y29" s="11">
+        <v>2</v>
+      </c>
+      <c r="Z29" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA29" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB29" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC29" s="11">
+        <v>0</v>
+      </c>
     </row>
     <row r="30" spans="1:29" x14ac:dyDescent="0.25">
       <c r="H30" s="16">
@@ -2861,6 +3501,24 @@
       <c r="M30" s="21">
         <v>0</v>
       </c>
+      <c r="X30" s="11">
+        <v>1</v>
+      </c>
+      <c r="Y30" s="11">
+        <v>3</v>
+      </c>
+      <c r="Z30" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA30" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB30" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC30" s="11">
+        <v>0</v>
+      </c>
     </row>
     <row r="31" spans="1:29" x14ac:dyDescent="0.25">
       <c r="H31" s="16">
@@ -2879,6 +3537,25 @@
         <v>9</v>
       </c>
       <c r="M31" s="21">
+        <f>M11</f>
+        <v>0.3125</v>
+      </c>
+      <c r="X31" s="11">
+        <v>1</v>
+      </c>
+      <c r="Y31" s="11">
+        <v>4</v>
+      </c>
+      <c r="Z31" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA31" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB31" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC31" s="11">
         <v>0</v>
       </c>
     </row>
@@ -2899,10 +3576,29 @@
         <v>9</v>
       </c>
       <c r="M32" s="21">
+        <f>M12</f>
+        <v>0.15625</v>
+      </c>
+      <c r="X32" s="11">
+        <v>2</v>
+      </c>
+      <c r="Y32" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="Z32" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA32" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB32" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC32" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="8:29" x14ac:dyDescent="0.25">
       <c r="H33" s="16">
         <v>3</v>
       </c>
@@ -2921,8 +3617,26 @@
       <c r="M33" s="21">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="X33" s="11">
+        <v>2</v>
+      </c>
+      <c r="Y33" s="11">
+        <v>1</v>
+      </c>
+      <c r="Z33" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA33" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB33" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC33" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="8:29" x14ac:dyDescent="0.25">
       <c r="H34" s="16">
         <v>3</v>
       </c>
@@ -2939,10 +3653,28 @@
         <v>9</v>
       </c>
       <c r="M34" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="8:13" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="X34" s="11">
+        <v>2</v>
+      </c>
+      <c r="Y34" s="11">
+        <v>2</v>
+      </c>
+      <c r="Z34" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA34" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB34" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC34" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="8:29" x14ac:dyDescent="0.25">
       <c r="H35" s="16">
         <v>3</v>
       </c>
@@ -2959,10 +3691,28 @@
         <v>9</v>
       </c>
       <c r="M35" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="8:13" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="X35" s="11">
+        <v>2</v>
+      </c>
+      <c r="Y35" s="11">
+        <v>3</v>
+      </c>
+      <c r="Z35" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA35" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB35" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC35" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="8:29" x14ac:dyDescent="0.25">
       <c r="H36" s="16">
         <v>3</v>
       </c>
@@ -2979,10 +3729,29 @@
         <v>9</v>
       </c>
       <c r="M36" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="8:13" x14ac:dyDescent="0.25">
+        <f>M16</f>
+        <v>0.15625</v>
+      </c>
+      <c r="X36" s="11">
+        <v>2</v>
+      </c>
+      <c r="Y36" s="11">
+        <v>4</v>
+      </c>
+      <c r="Z36" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA36" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB36" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC36" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="8:29" x14ac:dyDescent="0.25">
       <c r="H37" s="16">
         <v>3</v>
       </c>
@@ -2999,10 +3768,29 @@
         <v>9</v>
       </c>
       <c r="M37" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="8:13" x14ac:dyDescent="0.25">
+        <f>M17</f>
+        <v>7.8125E-2</v>
+      </c>
+      <c r="X37" s="11">
+        <v>3</v>
+      </c>
+      <c r="Y37" s="11">
+        <v>0</v>
+      </c>
+      <c r="Z37" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA37" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB37" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC37" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="8:29" x14ac:dyDescent="0.25">
       <c r="H38" s="16">
         <v>4</v>
       </c>
@@ -3021,8 +3809,26 @@
       <c r="M38" s="21">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="X38" s="11">
+        <v>3</v>
+      </c>
+      <c r="Y38" s="11">
+        <v>1</v>
+      </c>
+      <c r="Z38" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA38" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB38" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC38" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="8:29" x14ac:dyDescent="0.25">
       <c r="H39" s="16">
         <v>4</v>
       </c>
@@ -3039,10 +3845,28 @@
         <v>9</v>
       </c>
       <c r="M39" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="8:13" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="X39" s="11">
+        <v>3</v>
+      </c>
+      <c r="Y39" s="11">
+        <v>2</v>
+      </c>
+      <c r="Z39" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA39" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB39" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC39" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="8:29" x14ac:dyDescent="0.25">
       <c r="H40" s="16">
         <v>4</v>
       </c>
@@ -3059,10 +3883,28 @@
         <v>9</v>
       </c>
       <c r="M40" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="8:13" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="X40" s="11">
+        <v>3</v>
+      </c>
+      <c r="Y40" s="11">
+        <v>3</v>
+      </c>
+      <c r="Z40" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA40" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB40" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC40" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="8:29" x14ac:dyDescent="0.25">
       <c r="H41" s="16">
         <v>4</v>
       </c>
@@ -3079,10 +3921,29 @@
         <v>9</v>
       </c>
       <c r="M41" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="8:13" x14ac:dyDescent="0.25">
+        <f>M21</f>
+        <v>7.8125E-2</v>
+      </c>
+      <c r="X41" s="11">
+        <v>3</v>
+      </c>
+      <c r="Y41" s="11">
+        <v>4</v>
+      </c>
+      <c r="Z41" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA41" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB41" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC41" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="8:29" x14ac:dyDescent="0.25">
       <c r="H42" s="16">
         <v>4</v>
       </c>
@@ -3099,42 +3960,133 @@
         <v>9</v>
       </c>
       <c r="M42" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="8:13" x14ac:dyDescent="0.25">
+        <f>M22</f>
+        <v>3.90625E-2</v>
+      </c>
+      <c r="X42" s="11">
+        <v>4</v>
+      </c>
+      <c r="Y42" s="11">
+        <v>0</v>
+      </c>
+      <c r="Z42" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA42" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB42" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC42" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="8:29" x14ac:dyDescent="0.25">
       <c r="H43" s="16"/>
       <c r="I43" s="20"/>
       <c r="J43" s="20"/>
       <c r="K43" s="20"/>
       <c r="L43" s="16"/>
       <c r="M43" s="21"/>
-    </row>
-    <row r="44" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="X43" s="11">
+        <v>4</v>
+      </c>
+      <c r="Y43" s="11">
+        <v>1</v>
+      </c>
+      <c r="Z43" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA43" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB43" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC43" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="8:29" x14ac:dyDescent="0.25">
       <c r="H44" s="16"/>
       <c r="I44" s="20"/>
       <c r="J44" s="20"/>
       <c r="K44" s="20"/>
       <c r="L44" s="16"/>
       <c r="M44" s="21"/>
-    </row>
-    <row r="45" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="X44" s="11">
+        <v>4</v>
+      </c>
+      <c r="Y44" s="11">
+        <v>2</v>
+      </c>
+      <c r="Z44" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA44" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB44" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC44" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="8:29" x14ac:dyDescent="0.25">
       <c r="H45" s="25"/>
       <c r="I45" s="20"/>
       <c r="J45" s="20"/>
       <c r="K45" s="20"/>
       <c r="L45" s="16"/>
       <c r="M45" s="21"/>
-    </row>
-    <row r="46" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="X45" s="11">
+        <v>4</v>
+      </c>
+      <c r="Y45" s="11">
+        <v>3</v>
+      </c>
+      <c r="Z45" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA45" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB45" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC45" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="8:29" x14ac:dyDescent="0.25">
       <c r="H46" s="16"/>
       <c r="I46" s="20"/>
       <c r="J46" s="20"/>
       <c r="K46" s="20"/>
       <c r="L46" s="16"/>
       <c r="M46" s="21"/>
-    </row>
-    <row r="47" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="X46" s="11">
+        <v>4</v>
+      </c>
+      <c r="Y46" s="11">
+        <v>4</v>
+      </c>
+      <c r="Z46" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA46" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB46" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC46" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="8:29" x14ac:dyDescent="0.25">
       <c r="H47" s="16"/>
       <c r="I47" s="20"/>
       <c r="J47" s="20"/>
@@ -3142,7 +4094,7 @@
       <c r="L47" s="16"/>
       <c r="M47" s="21"/>
     </row>
-    <row r="48" spans="8:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="8:29" x14ac:dyDescent="0.25">
       <c r="H48" s="16"/>
       <c r="I48" s="20"/>
       <c r="J48" s="20"/>

--- a/New-Implementation/Data/simple-data.xlsx
+++ b/New-Implementation/Data/simple-data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\Projects\UOttawa-Dynamic-Knapsack-Problem-Python\New-Implementation\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvolo024\Desktop\UOttawa-Dynamic-Knapsack-Problem-Python\New-Implementation\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8988346F-19EC-440E-A1E9-3367961BF897}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E141583A-2DAC-49E7-BA18-692BB02E3169}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" firstSheet="5" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" firstSheet="5" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Indices Data" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -1908,8 +1910,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1945,13 +1947,13 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D2">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="E2">
-        <v>0.99</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1965,8 +1967,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:AMJ222"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M41" sqref="M41"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
